--- a/data/berita_detik.xlsx
+++ b/data/berita_detik.xlsx
@@ -462,3600 +462,3600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6954906/viral-foto-siswa-smp-di-tasik-injak-kepala-teman-begini-faktanya</t>
+          <t>https://www.detik.com/jabar/berita/d-6956616/kisah-asti-daur-ulang-sampah-hingga-karyanya-sampai-ke-pesohor</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viral Foto Siswa SMP di Tasik Injak Kepala Teman, Begini Faktanya</t>
+          <t>Kisah Asti Daur Ulang Sampah hingga Karyanya Sampai ke Pesohor</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45197.75</v>
+        <v>45200.33333333334</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Warga Tasikmalaya dihebohkan dengan beredarnya sebuah foto siswa SMP yang tengah menginjak kepala temannya. Pihak sekolah angkat bicara terkait kasus itu.</t>
+          <t>Asti Gustiasih (63) tak menjadikan keterbatasan fisik sebagai hambatan berkarya. Ia menjadi pegiat daur ulang sampah yang karyanya sampai ke tangan pesohor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6954607/polisi-ungkap-aplikasi-walla-pemicu-pelajar-bandung-disodomi-2-pria</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6956273/jejak-kriminal-bule-as-yang-tusuk-mati-mertua-hingga-bisa-masuk-indonesia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polisi Ungkap Aplikasi Walla Pemicu Pelajar Bandung Disodomi 2 Pria</t>
+          <t>Jejak Kriminal Bule AS yang Tusuk Mati Mertua hingga Bisa Masuk Indonesia</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>45197.60416666666</v>
+        <v>45198.6875</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kasus pelajar Bandung jadi korban sodomi 2 pria bermula dari percakapan di aplikasi Walla. Polisi pun meminta Kominfo memblokir aplikasi itu.</t>
+          <t>Arthur Leigh Welohr (35), WNA asal Amerika Serikat tega menusuk mati mertuanya sendiri. Ini kata Kantor Imigrasi Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6954621/kocar-kacir-pejudi-adu-muncang-di-tasikmalaya-saat-digerebek-polisi</t>
+          <t>https://news.detik.com/berita/d-6956617/viral-foto-siswa-smp-di-tasik-injak-kepala-teman-kepsek-bilang-bercanda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kocar-kacir Pejudi Adu Muncang di Tasikmalaya Saat Digerebek Polisi</t>
+          <t>Viral Foto Siswa SMP di Tasik Injak Kepala Teman, Kepsek Bilang Bercanda</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>45197.48680555556</v>
+        <v>45198.6875</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Polisi menggerebek arena permainan adu kemiri (muncang) di sebuah area pemakaman di Tasik. Saat digerebek, para pejudi kocar-kacir.</t>
+          <t>Heboh video bullying siswa SMP di Cilacap, Jateng, masih hangat diperbincangkan. Kini, di Tasikmalaya beredar foto siswa SMP yang menginjak kepala temannya.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953795/pura-pura-beli-test-pack-maling-gondol-2-kotak-amal-di-apotek-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6954906/viral-foto-siswa-smp-di-tasik-injak-kepala-teman-begini-faktanya</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pura-pura Beli Test Pack, Maling Gondol 2 Kotak Amal di Apotek Tasik</t>
+          <t>Viral Foto Siswa SMP di Tasik Injak Kepala Teman, Begini Faktanya</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45197.0625</v>
+        <v>45197.75</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dua buah kotak amal di apotek Padayungan Kota Tasikmalaya digondol maling. Aksi terduga pelaku pencurian ini terekam kamera pengintai atau CCTV.</t>
+          <t>Warga Tasikmalaya dihebohkan dengan beredarnya sebuah foto siswa SMP yang tengah menginjak kepala temannya. Pihak sekolah angkat bicara terkait kasus itu.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953372/jejak-kriminal-bule-amerika-tusuk-mati-mertua-di-kota-banjar</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6954607/polisi-ungkap-aplikasi-walla-pemicu-pelajar-bandung-disodomi-2-pria</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jejak Kriminal Bule Amerika Tusuk Mati Mertua di Kota Banjar</t>
+          <t>Polisi Ungkap Aplikasi Walla Pemicu Pelajar Bandung Disodomi 2 Pria</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45196.73958333334</v>
+        <v>45197.60416666666</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bule asal Amerika Serikat Arthur Leigh Welohr (35) kini ditahan Mapolres Kota Banjar setelah membunuh mertuanya bernama Agus Sopian (58).</t>
+          <t>Kasus pelajar Bandung jadi korban sodomi 2 pria bermula dari percakapan di aplikasi Walla. Polisi pun meminta Kominfo memblokir aplikasi itu.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953531/2-pria-penyuka-sesama-jenis-sodomi-pelajar-di-bandung</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6954621/kocar-kacir-pejudi-adu-muncang-di-tasikmalaya-saat-digerebek-polisi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2 Pria Penyuka Sesama Jenis Sodomi Pelajar di Bandung</t>
+          <t>Kocar-kacir Pejudi Adu Muncang di Tasikmalaya Saat Digerebek Polisi</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45196.70902777778</v>
+        <v>45197.48680555556</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nasib pilu dialami D (11). Remaja lelaki yang masih berstatus pelajar di Kota Bandung menjadi korban pencabulan yang dilakukan 2 pria penyuka sesama jenis.</t>
+          <t>Polisi menggerebek arena permainan adu kemiri (muncang) di sebuah area pemakaman di Tasik. Saat digerebek, para pejudi kocar-kacir.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6952857/terungkap-ini-penyebab-lantai-rumah-di-tasikmalaya-yang-mendadak-panas</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953795/pura-pura-beli-test-pack-maling-gondol-2-kotak-amal-di-apotek-tasik</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Terungkap! Ini Penyebab Lantai Rumah di Tasikmalaya yang Mendadak Panas</t>
+          <t>Pura-pura Beli Test Pack, Maling Gondol 2 Kotak Amal di Apotek Tasik</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45196.49722222222</v>
+        <v>45197.0625</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Misteri lantai rumah Dede, warga Kota Tasikmalaya, yang mendadak panas mulai terkuat. Penyebabnya diduga ada kesalahan dalam instalasi listrik.</t>
+          <t>Dua buah kotak amal di apotek Padayungan Kota Tasikmalaya digondol maling. Aksi terduga pelaku pencurian ini terekam kamera pengintai atau CCTV.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jogja/berita/d-6952767/lantai-rumah-warga-tasik-mendadak-panas-ternyata-ini-penyebabnya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953372/jejak-kriminal-bule-amerika-tusuk-mati-mertua-di-kota-banjar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lantai Rumah Warga Tasik Mendadak Panas, Ternyata Ini Penyebabnya</t>
+          <t>Jejak Kriminal Bule Amerika Tusuk Mati Mertua di Kota Banjar</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45196.47361111111</v>
+        <v>45196.73958333334</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Penyebab lantai rumah warga Kota Tasikmalaya, Jawa Barat, Dede Mulyana mendadak panas akhirnya terungkap. Simak selengkapnya di sini.</t>
+          <t>Bule asal Amerika Serikat Arthur Leigh Welohr (35) kini ditahan Mapolres Kota Banjar setelah membunuh mertuanya bernama Agus Sopian (58).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6952529/terungkap-penyebab-lantai-rumah-dede-di-tasik-mendadak-panas</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6953531/2-pria-penyuka-sesama-jenis-sodomi-pelajar-di-bandung</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Terungkap Penyebab Lantai Rumah Dede di Tasik Mendadak Panas</t>
+          <t>2 Pria Penyuka Sesama Jenis Sodomi Pelajar di Bandung</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>45196.38819444444</v>
+        <v>45196.70902777778</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Misteri lantai rumah Dede, warga Kota Tasikmalaya yang mendadak panas mulai terkuat. Kesalahan dalam instalasi listrik diduga menjadi penyebabnya.</t>
+          <t>Nasib pilu dialami D (11). Remaja lelaki yang masih berstatus pelajar di Kota Bandung menjadi korban pencabulan yang dilakukan 2 pria penyuka sesama jenis.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/bisnis/d-6950956/beras-premium-di-jabar-diklaim-turun-harga</t>
+          <t>https://www.detik.com/jogja/berita/d-6952767/lantai-rumah-warga-tasik-mendadak-panas-ternyata-ini-penyebabnya</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Beras Premium di Jabar Diklaim Turun Harga</t>
+          <t>Lantai Rumah Warga Tasik Mendadak Panas, Ternyata Ini Penyebabnya</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>45196.16666666666</v>
+        <v>45196.47361111111</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Harga beras premium pada pekan ketiga September 2023 ada di angka Rp 11.483 per kilogram di Jaw Barat.</t>
+          <t>Penyebab lantai rumah warga Kota Tasikmalaya, Jawa Barat, Dede Mulyana mendadak panas akhirnya terungkap. Simak selengkapnya di sini.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6951727/ali-jupri-jadi-kasat-reskrim-polres-sukabumi-usai-ungkap-kasus-bule</t>
+          <t>https://www.detik.com/jabar/berita/d-6952529/terungkap-penyebab-lantai-rumah-dede-di-tasik-mendadak-panas</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ali Jupri Jadi Kasat Reskrim Polres Sukabumi Usai Ungkap Kasus Bule</t>
+          <t>Terungkap Penyebab Lantai Rumah Dede di Tasik Mendadak Panas</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>45196.07291666666</v>
+        <v>45196.38819444444</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Karier Kasat Reskrim Polres Banjar AKP Ali Jupri kini berlanjut di Polres Sukabumi. Ia jadi kasar reskrim di sana usai mengungkap kasus bule di Banjar.</t>
+          <t>Misteri lantai rumah Dede, warga Kota Tasikmalaya yang mendadak panas mulai terkuat. Kesalahan dalam instalasi listrik diduga menjadi penyebabnya.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6951136/tiga-jaringan-pelaku-curanmor-di-jabar-dibekuk-polisi</t>
+          <t>https://www.detik.com/jabar/berita/d-6951986/misteri-lantai-rumah-warga-tasik-yang-mendadak-panas</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tiga Jaringan Pelaku Curanmor di Jabar Dibekuk Polisi</t>
+          <t>Misteri Lantai Rumah Warga Tasik yang Mendadak Panas</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>45196.02083333334</v>
+        <v>45196.30138888889</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Polisi menangkap sejumlah pelaku pencurian kendaraan bermotor yang beroperasi di beberapa wilayah Jabar. Mereka telah berhasil menggasak motor dan mobil.</t>
+          <t>Dede Mulyana (60) panik bukan kepalang, pasalnya lantai keramik rumahnya mendadak panas. Khawatir terjadi sesuatu, ia akhirnya membongkar lantai rumahnya.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6951753/jabar-hari-ini-teror-macan-tutul-hingga-sejoli-tersangka-live-mesum</t>
+          <t>https://www.detik.com/jabar/bisnis/d-6950956/beras-premium-di-jabar-diklaim-turun-harga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Teror Macan Tutul hingga Sejoli Tersangka Live Mesum</t>
+          <t>Beras Premium di Jabar Diklaim Turun Harga</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>45195.91666666666</v>
+        <v>45196.16666666666</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sejumlah peristiwa mewarnai pemberitaan di Jabar hari ini. Mulai dari teror Macan Tutul di Karawang hingga sejoli asal Garut jadi tersangka kasus live mesum.</t>
+          <t>Harga beras premium pada pekan ketiga September 2023 ada di angka Rp 11.483 per kilogram di Jaw Barat.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6951715/maling-laptop-di-tasik-cari-sekolah-sepi-lewat-browsing-google</t>
+          <t>https://www.detik.com/jabar/berita/d-6951727/ali-jupri-jadi-kasat-reskrim-polres-sukabumi-usai-ungkap-kasus-bule</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maling Laptop di Tasik Cari Sekolah Sepi Lewat Browsing Google</t>
+          <t>Ali Jupri Jadi Kasat Reskrim Polres Sukabumi Usai Ungkap Kasus Bule</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45195.7</v>
+        <v>45196.07291666666</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Polisi membongkar pencurian aset milik SMP 2 Cikatomas. Dalam aksinya, komplotan pelaku lebih dulu mencari lokasi sekolah yang jauh dari pemukiman via Google.</t>
+          <t>Karier Kasat Reskrim Polres Banjar AKP Ali Jupri kini berlanjut di Polres Sukabumi. Ia jadi kasar reskrim di sana usai mengungkap kasus bule di Banjar.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumbagsel/berita/d-6951002/lantai-rumah-dede-mendadak-panas-begini-ceritanya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6951136/tiga-jaringan-pelaku-curanmor-di-jabar-dibekuk-polisi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lantai Rumah Dede Mendadak Panas, Begini Ceritanya</t>
+          <t>Tiga Jaringan Pelaku Curanmor di Jabar Dibekuk Polisi</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>45195.51388888889</v>
+        <v>45196.02083333334</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lantai rumah seorang warga, Dede Mulyana (60), di Sindang Perbu, Mangkubumi, Kota Tasikmalaya mendadak panas. Lantai yang panas itu hanya sebagian.</t>
+          <t>Polisi menangkap sejumlah pelaku pencurian kendaraan bermotor yang beroperasi di beberapa wilayah Jabar. Mereka telah berhasil menggasak motor dan mobil.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6951061/lantai-rumah-di-tasikmalaya-mendadak-panas-keramik-sampai-dibongkar</t>
+          <t>https://www.detik.com/jabar/berita/d-6951753/jabar-hari-ini-teror-macan-tutul-hingga-sejoli-tersangka-live-mesum</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lantai Rumah di Tasikmalaya Mendadak Panas, Keramik Sampai Dibongkar</t>
+          <t>Jabar Hari Ini: Teror Macan Tutul hingga Sejoli Tersangka Live Mesum</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>45195.50208333333</v>
+        <v>45195.91666666666</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dede mengatakan lantai rumahnya sudah memanas sejak Minggu (24/9) sore.</t>
+          <t>Sejumlah peristiwa mewarnai pemberitaan di Jabar hari ini. Mulai dari teror Macan Tutul di Karawang hingga sejoli asal Garut jadi tersangka kasus live mesum.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6950921/heboh-lantai-rumah-warga-tasikmalaya-mendadak-panas</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6951715/maling-laptop-di-tasik-cari-sekolah-sepi-lewat-browsing-google</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Heboh Lantai Rumah Warga Tasikmalaya Mendadak Panas</t>
+          <t>Maling Laptop di Tasik Cari Sekolah Sepi Lewat Browsing Google</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>45195.46180555555</v>
+        <v>45195.7</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lantai rumah warga di Tasikmalaya mendadak panas. Penghuni rumah pun khawatir terjadi hal tak diinginkan.</t>
+          <t>Polisi membongkar pencurian aset milik SMP 2 Cikatomas. Dalam aksinya, komplotan pelaku lebih dulu mencari lokasi sekolah yang jauh dari pemukiman via Google.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/wisata/d-6949674/muncul-dua-wajah-berbeda-saat-waduk-situ-gede-tasik-surut</t>
+          <t>https://www.detik.com/sumbagsel/berita/d-6951002/lantai-rumah-dede-mendadak-panas-begini-ceritanya</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Muncul Dua 'Wajah' Berbeda Saat Waduk Situ Gede Tasik Surut</t>
+          <t>Lantai Rumah Dede Mendadak Panas, Begini Ceritanya</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>45195.33333333334</v>
+        <v>45195.51388888889</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Surutnya debit air di danau Situ Gede, Kota Tasikmalaya menimbulkan dua sisi yang berbeda.</t>
+          <t>Lantai rumah seorang warga, Dede Mulyana (60), di Sindang Perbu, Mangkubumi, Kota Tasikmalaya mendadak panas. Lantai yang panas itu hanya sebagian.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6949717/aksi-pencuri-santai-tenggak-minuman-sambil-curi-komputer-sekolah</t>
+          <t>https://news.detik.com/berita/d-6951061/lantai-rumah-di-tasikmalaya-mendadak-panas-keramik-sampai-dibongkar</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aksi Pencuri Santai Tenggak Minuman Sambil Curi Komputer Sekolah</t>
+          <t>Lantai Rumah di Tasikmalaya Mendadak Panas, Keramik Sampai Dibongkar</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>45194.69791666666</v>
+        <v>45195.50208333333</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aksi pencurian di SMKN Sukaresik Kabupaten Tasikmalaya terekam kamera CCTV. Pelaku mencuri sambil minum minuman dingin dari kantin sekolah.</t>
+          <t>Dede mengatakan lantai rumahnya sudah memanas sejak Minggu (24/9) sore.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6947842/hilangnya-nyawa-perempuan-muda-di-tasik-gegara-open-bo</t>
+          <t>https://www.detik.com/jabar/berita/d-6950921/heboh-lantai-rumah-warga-tasikmalaya-mendadak-panas</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hilangnya Nyawa Perempuan Muda di Tasik gegara Open BO</t>
+          <t>Heboh Lantai Rumah Warga Tasikmalaya Mendadak Panas</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45193.64583333334</v>
+        <v>45195.46180555555</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Polisi berhasil mengungkap kasus kematian perempuan muda di Tasikmalaya yang ditemukan tewas di kamar kos.</t>
+          <t>Lantai rumah warga di Tasikmalaya mendadak panas. Penghuni rumah pun khawatir terjadi hal tak diinginkan.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6947637/pemotor-berpakaian-hitam-tewas-tergeletak-di-tepi-jalan-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/wisata/d-6949674/muncul-dua-wajah-berbeda-saat-waduk-situ-gede-tasik-surut</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Pemotor Berpakaian Hitam Tewas Tergeletak di Tepi Jalan Tasikmalaya</t>
+          <t>Muncul Dua 'Wajah' Berbeda Saat Waduk Situ Gede Tasik Surut</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45193.40347222222</v>
+        <v>45195.33333333334</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Seorang pengendara sepeda motor ditemukan meninggal dunia di tepi jalan. Diduga pria tersebut mengalami kecelakaan lalu lintas tunggal.</t>
+          <t>Surutnya debit air di danau Situ Gede, Kota Tasikmalaya menimbulkan dua sisi yang berbeda.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6945787/ledakan-hebat-guncangkan-bumi-usai-pelantikan-bupati-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6949717/aksi-pencuri-santai-tenggak-minuman-sambil-curi-komputer-sekolah</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ledakan Hebat Guncangkan Bumi Usai Pelantikan Bupati Tasikmalaya</t>
+          <t>Aksi Pencuri Santai Tenggak Minuman Sambil Curi Komputer Sekolah</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45193.3125</v>
+        <v>45194.69791666666</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ledakan dahsyat terjadi setelah pelantikan Kolonel Inf. A Benyamin sebagai Bupati Tasikmalaya. Sampai-sampai mengguncangkan bumi yang dipijak.</t>
+          <t>Aksi pencurian di SMKN Sukaresik Kabupaten Tasikmalaya terekam kamera CCTV. Pelaku mencuri sambil minum minuman dingin dari kantin sekolah.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/detikpedia/d-6947003/contoh-soal-latihan-uts-ips-kelas-7-kurikulum-merdeka</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6947842/hilangnya-nyawa-perempuan-muda-di-tasik-gegara-open-bo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Contoh Soal Latihan UTS IPS Kelas 7 Kurikulum Merdeka</t>
+          <t>Hilangnya Nyawa Perempuan Muda di Tasik gegara Open BO</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45193.29166666666</v>
+        <v>45193.64583333334</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20 Contoh soal untuk latihan menjelang UTS bagi siswa SMP kelas 7 menggunakan kurikulum merdeka. Cek di sini.</t>
+          <t>Polisi berhasil mengungkap kasus kematian perempuan muda di Tasikmalaya yang ditemukan tewas di kamar kos.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/bisnis/d-6947123/jalur-penerbangan-tasikmalaya-jakarta-kembali-dibuka</t>
+          <t>https://www.detik.com/jabar/berita/d-6947637/pemotor-berpakaian-hitam-tewas-tergeletak-di-tepi-jalan-tasikmalaya</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jalur Penerbangan Tasikmalaya-Jakarta Kembali Dibuka</t>
+          <t>Pemotor Berpakaian Hitam Tewas Tergeletak di Tepi Jalan Tasikmalaya</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>45193.00347222222</v>
+        <v>45193.40347222222</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pemerintah Kota Tasikmalaya melakukan reaktivasi penerbangan Tasikmalaya-Jakarta mulai 2 Oktober 2023 mendatang.</t>
+          <t>Seorang pengendara sepeda motor ditemukan meninggal dunia di tepi jalan. Diduga pria tersebut mengalami kecelakaan lalu lintas tunggal.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6946789/detik-detik-kecelakaan-maut-mobil-pikap-di-bkr-bandung</t>
+          <t>https://www.detik.com/jabar/berita/d-6945787/ledakan-hebat-guncangkan-bumi-usai-pelantikan-bupati-tasikmalaya</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Detik-detik Kecelakaan Maut Mobil Pikap di BKR Bandung</t>
+          <t>Ledakan Hebat Guncangkan Bumi Usai Pelantikan Bupati Tasikmalaya</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45192.62152777778</v>
+        <v>45193.3125</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Polisi mengungkap mobil pikap yang dikendarai Jiman (50) melaju kencang sebelum menabrak tiga kendaraan yang berhenti di lampu merah Jl BKR, Kota Bandung.</t>
+          <t>Ledakan dahsyat terjadi setelah pelantikan Kolonel Inf. A Benyamin sebagai Bupati Tasikmalaya. Sampai-sampai mengguncangkan bumi yang dipijak.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6943739/jabar-hari-ini-sekeluarga-idap-parkinson-hingga-panji-gumilang-mau-tobat</t>
+          <t>https://www.detik.com/edu/detikpedia/d-6947003/contoh-soal-latihan-uts-ips-kelas-7-kurikulum-merdeka</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Sekeluarga Idap Parkinson hingga Panji Gumilang Mau Tobat</t>
+          <t>Contoh Soal Latihan UTS IPS Kelas 7 Kurikulum Merdeka</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45190.92361111111</v>
+        <v>45193.29166666666</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini. Mulai dari kabar Panji Gumilang yang ingin bertobat hingga satu keluarga di Cianjur idap parkinson.</t>
+          <t>20 Contoh soal untuk latihan menjelang UTS bagi siswa SMP kelas 7 menggunakan kurikulum merdeka. Cek di sini.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6943491/kunjungi-bazar-kreasi-bhayangkari-kapolri-dikalungi-selendang-kaltim</t>
+          <t>https://www.detik.com/jabar/bisnis/d-6947123/jalur-penerbangan-tasikmalaya-jakarta-kembali-dibuka</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kunjungi Bazar Kreasi Bhayangkari, Kapolri Dikalungi Selendang Kaltim</t>
+          <t>Jalur Penerbangan Tasikmalaya-Jakarta Kembali Dibuka</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45190.69583333333</v>
+        <v>45193.00347222222</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kapolri Jenderal Listyo Sigit Purnomo mengunjungi Bazar Kreasi Bhayangkari Nusantara 2023 di Jakarta Convention Center (JCC).</t>
+          <t>Pemerintah Kota Tasikmalaya melakukan reaktivasi penerbangan Tasikmalaya-Jakarta mulai 2 Oktober 2023 mendatang.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/hukum-dan-kriminal/d-6943047/tragedi-open-bo-berujung-maut-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6946789/detik-detik-kecelakaan-maut-mobil-pikap-di-bkr-bandung</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tragedi Open BO Berujung Maut di Tasikmalaya</t>
+          <t>Detik-detik Kecelakaan Maut Mobil Pikap di BKR Bandung</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45190.66666666666</v>
+        <v>45192.62152777778</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wanita berinsial SAR (16) meregang nyawa di tangan pria berinisial RM (29) di kamar kosnya di Kota Tasikmalaya. Pembunuhan diduga dipicu masalah open BO.</t>
+          <t>Polisi mengungkap mobil pikap yang dikendarai Jiman (50) melaju kencang sebelum menabrak tiga kendaraan yang berhenti di lampu merah Jl BKR, Kota Bandung.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6943246/celurit-maut-yang-tewaskan-pemuda-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6943739/jabar-hari-ini-sekeluarga-idap-parkinson-hingga-panji-gumilang-mau-tobat</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Celurit Maut yang Tewaskan Pemuda Tasikmalaya</t>
+          <t>Jabar Hari Ini: Sekeluarga Idap Parkinson hingga Panji Gumilang Mau Tobat</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45190.65625</v>
+        <v>45190.92361111111</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Seorang pemuda dihabisi pemuda lainnya di Tasikmalaya menggunakan celurit. Hal itu gegara saling tatap yang berujung kalap.</t>
+          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini. Mulai dari kabar Panji Gumilang yang ingin bertobat hingga satu keluarga di Cianjur idap parkinson.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/budaya/d-6942541/promotor-pastikan-konser-dewa-19-di-tasikmalaya-tetap-digelar</t>
+          <t>https://news.detik.com/berita/d-6943491/kunjungi-bazar-kreasi-bhayangkari-kapolri-dikalungi-selendang-kaltim</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Promotor Pastikan Konser Dewa 19 di Tasikmalaya Tetap Digelar</t>
+          <t>Kunjungi Bazar Kreasi Bhayangkari, Kapolri Dikalungi Selendang Kaltim</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45190.58333333334</v>
+        <v>45190.69583333333</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Penyelenggara konser Dewa 19 di Lanud Wiriadinata Tasikmalaya pada 21 Oktober 2023 mendatang, memastikan acara tersebut tetap berjalan sesuai rencana.</t>
+          <t>Kapolri Jenderal Listyo Sigit Purnomo mengunjungi Bazar Kreasi Bhayangkari Nusantara 2023 di Jakarta Convention Center (JCC).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6942097/tatapan-mata-yang-hilangkan-nyawa-di-tasikmalaya</t>
+          <t>https://www.detik.com/sulsel/hukum-dan-kriminal/d-6943047/tragedi-open-bo-berujung-maut-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tatapan Mata yang Hilangkan Nyawa di Tasikmalaya</t>
+          <t>Tragedi Open BO Berujung Maut di Tasikmalaya</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45190.54166666666</v>
+        <v>45190.66666666666</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jika pandangan pertama sering dikaitkan dengan rasa cinta, kedua laki-laki di Tasikmalaya ini justru memendam amarah pada pandangan pertama.</t>
+          <t>Wanita berinsial SAR (16) meregang nyawa di tangan pria berinisial RM (29) di kamar kosnya di Kota Tasikmalaya. Pembunuhan diduga dipicu masalah open BO.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6942006/perkara-open-bo-berujung-pembunuhan-gadis-muda-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6943246/celurit-maut-yang-tewaskan-pemuda-tasikmalaya</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Perkara Open BO Berujung Pembunuhan Gadis Muda Tasikmalaya</t>
+          <t>Celurit Maut yang Tewaskan Pemuda Tasikmalaya</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45190.45833333334</v>
+        <v>45190.65625</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RM (29) nekat membunuh SAR (16), perempuan muda di Tasikmalaya karena tak puas dengan transaksi seksual. Kini ia diancam hukuman 15 tahun penjara.</t>
+          <t>Seorang pemuda dihabisi pemuda lainnya di Tasikmalaya menggunakan celurit. Hal itu gegara saling tatap yang berujung kalap.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6942291/produk-umkm-se-jabar-mejeng-di-bazar-kreasi-bhayangkari-nusantara-2023</t>
+          <t>https://www.detik.com/jabar/budaya/d-6942541/promotor-pastikan-konser-dewa-19-di-tasikmalaya-tetap-digelar</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Produk UMKM se-Jabar Mejeng di Bazar Kreasi Bhayangkari Nusantara 2023</t>
+          <t>Promotor Pastikan Konser Dewa 19 di Tasikmalaya Tetap Digelar</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45190.09513888889</v>
+        <v>45190.58333333334</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pengurus Daerah (PD) Bhayangkari Polda Jawa Barat ikut ambil bagian dalam kegiatan 'Bazar Kreasi Bhayangkari Nusantara 2023' di JCC Senayan.</t>
+          <t>Penyelenggara konser Dewa 19 di Lanud Wiriadinata Tasikmalaya pada 21 Oktober 2023 mendatang, memastikan acara tersebut tetap berjalan sesuai rencana.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6941951/jabar-hari-ini-kasus-korupsi-bikin-yana-mulyana-dipecat-tidak-hormat</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6942097/tatapan-mata-yang-hilangkan-nyawa-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Kasus Korupsi Bikin Yana Mulyana Dipecat Tidak Hormat</t>
+          <t>Tatapan Mata yang Hilangkan Nyawa di Tasikmalaya</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45189.925</v>
+        <v>45190.54166666666</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ragam peristiwa terjadi di Jabar hari ini, Rabu (20/9/2023). Seperti dipecatnya Yana Mulyana secara tidak hormat sebagai Walkot Bandung.</t>
+          <t>Jika pandangan pertama sering dikaitkan dengan rasa cinta, kedua laki-laki di Tasikmalaya ini justru memendam amarah pada pandangan pertama.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941949/kesal-hidung-belang-hingga-tega-bekap-mati-gadis-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6942006/perkara-open-bo-berujung-pembunuhan-gadis-muda-tasikmalaya</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kesal Hidung Belang hingga Tega Bekap Mati Gadis di Tasikmalaya</t>
+          <t>Perkara Open BO Berujung Pembunuhan Gadis Muda Tasikmalaya</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45189.79097222222</v>
+        <v>45190.45833333334</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RM (29) tega menghabisi nyawa gadis belia di Tasikmalaya gegara urusan open BO. Kekesalan RM jadi pemicu dia nekat menghilangkan nyawa SAR (16).</t>
+          <t>RM (29) nekat membunuh SAR (16), perempuan muda di Tasikmalaya karena tak puas dengan transaksi seksual. Kini ia diancam hukuman 15 tahun penjara.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941444/tatap-mata-berujung-maut-di-tasikmalaya</t>
+          <t>https://news.detik.com/berita/d-6942291/produk-umkm-se-jabar-mejeng-di-bazar-kreasi-bhayangkari-nusantara-2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tatap Mata Berujung Maut di Tasikmalaya</t>
+          <t>Produk UMKM se-Jabar Mejeng di Bazar Kreasi Bhayangkari Nusantara 2023</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45189.66875</v>
+        <v>45190.09513888889</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kasus kematian Fajar Muhamad Nuralam (26) alias Ajay warga Kampung Kebon Tengah Kelurahan Tuguraja, Kecamatan Cihideung, Kota Tasikmalaya terungkap.</t>
+          <t>Pengurus Daerah (PD) Bhayangkari Polda Jawa Barat ikut ambil bagian dalam kegiatan 'Bazar Kreasi Bhayangkari Nusantara 2023' di JCC Senayan.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941208/perempuan-muda-tewas-di-kamar-kost-tasik-dibunuh-gegara-open-bo</t>
+          <t>https://www.detik.com/jabar/berita/d-6941951/jabar-hari-ini-kasus-korupsi-bikin-yana-mulyana-dipecat-tidak-hormat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Perempuan Muda Tewas di Kamar Kost Tasik Dibunuh gegara Open BO</t>
+          <t>Jabar Hari Ini: Kasus Korupsi Bikin Yana Mulyana Dipecat Tidak Hormat</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45189.60555555556</v>
+        <v>45189.925</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Polisi mengungkap kasus kematian perempuan muda berinisal SAR (16) di kamar kost Tasikmalaya. Koban ternyata tewas di tangan pria berinisial RM (29).</t>
+          <t>Ragam peristiwa terjadi di Jabar hari ini, Rabu (20/9/2023). Seperti dipecatnya Yana Mulyana secara tidak hormat sebagai Walkot Bandung.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://sport.detik.com/sport-lain/d-6940283/kompetisi-push-bike-terbesar-di-indonesia-tuntas-ini-hasilnya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941949/kesal-hidung-belang-hingga-tega-bekap-mati-gadis-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kompetisi Push Bike Terbesar di Indonesia Tuntas, Ini Hasilnya</t>
+          <t>Kesal Hidung Belang hingga Tega Bekap Mati Gadis di Tasikmalaya</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45188.97916666666</v>
+        <v>45189.79097222222</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cirebon baru saja menggelar kompetisi push bike terbesar di Indoneesia. Diharapkan kompetisi ini bisa melahirkan atlet-atlet cilik berbakat ke depannya.</t>
+          <t>RM (29) tega menghabisi nyawa gadis belia di Tasikmalaya gegara urusan open BO. Kekesalan RM jadi pemicu dia nekat menghilangkan nyawa SAR (16).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6939983/bupati-bandung-sebut-kcjb-dukung-kunjungan-wisata-ke-daerah</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941444/tatap-mata-berujung-maut-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bupati Bandung Sebut KCJB Dukung Kunjungan Wisata ke Daerah</t>
+          <t>Tatap Mata Berujung Maut di Tasikmalaya</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45188.79375</v>
+        <v>45189.66875</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dengan diaktifkannya KCJB, Dadang berharap dapat membantu dan mempercepat pertumbuhan ekonomi di Jawa Barat umumnya, di Bandung Raya khususnya.</t>
+          <t>Kasus kematian Fajar Muhamad Nuralam (26) alias Ajay warga Kampung Kebon Tengah Kelurahan Tuguraja, Kecamatan Cihideung, Kota Tasikmalaya terungkap.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6939090/dampak-kekeringan-di-kota-tasikmalaya-semakin-meluas</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6941208/perempuan-muda-tewas-di-kamar-kost-tasik-dibunuh-gegara-open-bo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dampak Kekeringan di Kota Tasikmalaya Semakin Meluas</t>
+          <t>Perempuan Muda Tewas di Kamar Kost Tasik Dibunuh gegara Open BO</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45188.59305555555</v>
+        <v>45189.60555555556</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dampak kemarau berupa kekeringan lahan pertanian dan krisis air bersih semakin meluas di Kota Tasikmalaya.</t>
+          <t>Polisi mengungkap kasus kematian perempuan muda berinisal SAR (16) di kamar kost Tasikmalaya. Koban ternyata tewas di tangan pria berinisial RM (29).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6938926/respons-pemkot-tasik-soal-batalnya-konser-yang-berbuntut-panjang</t>
+          <t>https://sport.detik.com/sport-lain/d-6940283/kompetisi-push-bike-terbesar-di-indonesia-tuntas-ini-hasilnya</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Respons Pemkot Tasik soal Batalnya Konser yang Berbuntut Panjang</t>
+          <t>Kompetisi Push Bike Terbesar di Indonesia Tuntas, Ini Hasilnya</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45188.57291666666</v>
+        <v>45188.97916666666</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pemkot Tasikmalaya buka suara menanggapi polemik batalnya konser musik di Tasikmalaya hingga memunculkan asumsi Tasikmalaya intoleran.</t>
+          <t>Cirebon baru saja menggelar kompetisi push bike terbesar di Indoneesia. Diharapkan kompetisi ini bisa melahirkan atlet-atlet cilik berbakat ke depannya.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6937952/jadi-penghuni-indekos-agar-bisa-mencuri</t>
+          <t>https://news.detik.com/berita/d-6939983/bupati-bandung-sebut-kcjb-dukung-kunjungan-wisata-ke-daerah</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jadi Penghuni Indekos agar Bisa Mencuri</t>
+          <t>Bupati Bandung Sebut KCJB Dukung Kunjungan Wisata ke Daerah</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45188.14583333334</v>
+        <v>45188.79375</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Seorang pencuri spesialis indeos ditangkap polisi di Tasikmalaya. Modusnya, pelaku menjadi penghuni indekos sebelum melancarkan aksinya.</t>
+          <t>Dengan diaktifkannya KCJB, Dadang berharap dapat membantu dan mempercepat pertumbuhan ekonomi di Jawa Barat umumnya, di Bandung Raya khususnya.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6937834/sejumlah-aktivis-mempertanyakan-batalnya-konser-gigi-di-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6939090/dampak-kekeringan-di-kota-tasikmalaya-semakin-meluas</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sejumlah Aktivis Mempertanyakan Batalnya Konser GIGI di Tasik</t>
+          <t>Dampak Kekeringan di Kota Tasikmalaya Semakin Meluas</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45187.75972222222</v>
+        <v>45188.59305555555</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pembatalan pelaksanaan konser musik di area parkir Asia Plaza Tasik, menuai respons dari sebagian kalangan masyarakat. Mereka mempertanyakan pembatalan itu.</t>
+          <t>Dampak kemarau berupa kekeringan lahan pertanian dan krisis air bersih semakin meluas di Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6935789/mesin-diesel-penggilingan-perenggut-nyawa-wawan-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6938926/respons-pemkot-tasik-soal-batalnya-konser-yang-berbuntut-panjang</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mesin Diesel Penggilingan Perenggut Nyawa Wawan di Tasikmalaya</t>
+          <t>Respons Pemkot Tasik soal Batalnya Konser yang Berbuntut Panjang</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45186.80208333334</v>
+        <v>45188.57291666666</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nasib tragis dialami Wawan Saefulloh (58), warga Cisayong, Kabupaten Tasikmalaya. Nyawanya melayang setelah terlilit putaran mesin penggilingan gabah.</t>
+          <t>Pemkot Tasikmalaya buka suara menanggapi polemik batalnya konser musik di Tasikmalaya hingga memunculkan asumsi Tasikmalaya intoleran.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/wisata/d-6935375/5-singkatan-jalan-yang-kerap-bikin-bingung-warga-luar-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6937952/jadi-penghuni-indekos-agar-bisa-mencuri</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5 Singkatan Jalan yang Kerap Bikin Bingung Warga Luar Tasikmalaya</t>
+          <t>Jadi Penghuni Indekos agar Bisa Mencuri</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45186.66666666666</v>
+        <v>45188.14583333334</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Masyarakat Kota Tasikmalaya memiliki kearifan lokal untuk penamaan daerah atau wilayah tertentu. Beberapa nama wilayah dilafalkan dengan cara disingkat.</t>
+          <t>Seorang pencuri spesialis indeos ditangkap polisi di Tasikmalaya. Modusnya, pelaku menjadi penghuni indekos sebelum melancarkan aksinya.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6934422/konser-gigi-di-tasikmalaya-batal-saat-hari-h-penggemar-kecewa</t>
+          <t>https://www.detik.com/jabar/berita/d-6937834/sejumlah-aktivis-mempertanyakan-batalnya-konser-gigi-di-tasik</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Konser GIGI di Tasikmalaya Batal Saat Hari H, Penggemar Kecewa</t>
+          <t>Sejumlah Aktivis Mempertanyakan Batalnya Konser GIGI di Tasik</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45185.56111111111</v>
+        <v>45187.75972222222</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Konser Gigi, RAN dan musisi ternama lainnya di area parkir Asia Plaza, Tasikmalaya dibatalkan pada hari-H. Hal itu membuat penggemar musik kecewa.</t>
+          <t>Pembatalan pelaksanaan konser musik di area parkir Asia Plaza Tasik, menuai respons dari sebagian kalangan masyarakat. Mereka mempertanyakan pembatalan itu.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6933475/deretan-penjabat-yang-jadi-kepala-daerah-di-jabar</t>
+          <t>https://www.detik.com/jabar/berita/d-6935789/mesin-diesel-penggilingan-perenggut-nyawa-wawan-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Deretan Penjabat yang Jadi Kepala Daerah di Jabar</t>
+          <t>Mesin Diesel Penggilingan Perenggut Nyawa Wawan di Tasikmalaya</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45185.31319444445</v>
+        <v>45186.80208333334</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Enam daerah di Jawa Barat punya kepala daerah baru setelah Kementerian Dalam Negeri (Kemendagri) menunjuk enam nama menjadi Penjabat (Pj) Bupati dan Wali Kota.</t>
+          <t>Nasib tragis dialami Wawan Saefulloh (58), warga Cisayong, Kabupaten Tasikmalaya. Nyawanya melayang setelah terlilit putaran mesin penggilingan gabah.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6933830/aksi-heroik-dede-emak-emak-tasikmalaya-jatuh-bangun-kejar-jambret</t>
+          <t>https://www.detik.com/jabar/wisata/d-6935375/5-singkatan-jalan-yang-kerap-bikin-bingung-warga-luar-tasikmalaya</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Aksi Heroik Dede Emak-emak Tasikmalaya, Jatuh-Bangun Kejar Jambret</t>
+          <t>5 Singkatan Jalan yang Kerap Bikin Bingung Warga Luar Tasikmalaya</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45184.92361111111</v>
+        <v>45186.66666666666</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Warga Tasikmalaya, Dede Sumartini (50) bisa bernapas lega, pasalnya sepeda motor yang digunakan jambret yang merampas tasnya mogok tak lama setelah beraksi di</t>
+          <t>Masyarakat Kota Tasikmalaya memiliki kearifan lokal untuk penamaan daerah atau wilayah tertentu. Beberapa nama wilayah dilafalkan dengan cara disingkat.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/edutainment/d-6933141/kisah-annisa-raih-sumpah-dokter-lewat-beasiswa-bidikmisi</t>
+          <t>https://www.detik.com/jabar/berita/d-6934422/konser-gigi-di-tasikmalaya-batal-saat-hari-h-penggemar-kecewa</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kisah Annisa, Raih Sumpah Dokter Lewat Beasiswa Bidikmisi</t>
+          <t>Konser GIGI di Tasikmalaya Batal Saat Hari H, Penggemar Kecewa</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45184.77083333334</v>
+        <v>45185.56111111111</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Annisa merupakan salah satu yang diambil sumpahnya pada Wisuda Profesi ke-65 Fakultas Kedokteran, Universitas Jenderal Soedirman. Begini perjuangannya.</t>
+          <t>Konser Gigi, RAN dan musisi ternama lainnya di area parkir Asia Plaza, Tasikmalaya dibatalkan pada hari-H. Hal itu membuat penggemar musik kecewa.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6932111/daftar-6-pj-bupatiwali-kota-di-jabar-yang-segera-dilantik</t>
+          <t>https://www.detik.com/jabar/berita/d-6933475/deretan-penjabat-yang-jadi-kepala-daerah-di-jabar</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Daftar 6 Pj Bupati/Wali Kota di Jabar yang Segera Dilantik</t>
+          <t>Deretan Penjabat yang Jadi Kepala Daerah di Jabar</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45184.36111111111</v>
+        <v>45185.31319444445</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kemendagri sudah menetapkan enam penjabat bupati dan wali kota di Jabar. Berikut ini nama-namanya.</t>
+          <t>Enam daerah di Jawa Barat punya kepala daerah baru setelah Kementerian Dalam Negeri (Kemendagri) menunjuk enam nama menjadi Penjabat (Pj) Bupati dan Wali Kota.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6931513/jabar-hari-ini-nasib-tragis-wawan-hingga-tendangan-maut-perenggut-nyawa</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6933830/aksi-heroik-dede-emak-emak-tasikmalaya-jatuh-bangun-kejar-jambret</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Nasib Tragis Wawan hingga Tendangan Maut Perenggut Nyawa</t>
+          <t>Aksi Heroik Dede Emak-emak Tasikmalaya, Jatuh-Bangun Kejar Jambret</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45183.91736111111</v>
+        <v>45184.92361111111</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jabar hari ini. Mulai dari nasib tragis Wawan tewas tergiling mesin hingga peluang Ridwan Kamil dampingi Prabowo.</t>
+          <t>Warga Tasikmalaya, Dede Sumartini (50) bisa bernapas lega, pasalnya sepeda motor yang digunakan jambret yang merampas tasnya mogok tak lama setelah beraksi di</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6931486/4-pria-mabuk-dicokok-polisi-usai-berulah-di-pilkades-tasikmalaya</t>
+          <t>https://www.detik.com/edu/edutainment/d-6933141/kisah-annisa-raih-sumpah-dokter-lewat-beasiswa-bidikmisi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4 Pria Mabuk Dicokok Polisi Usai Berulah di Pilkades Tasikmalaya</t>
+          <t>Kisah Annisa, Raih Sumpah Dokter Lewat Beasiswa Bidikmisi</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45183.73819444444</v>
+        <v>45184.77083333334</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Polisi mengamankan empat pria yang dianggap berbuat onar di lokasi Pilkades Tasikmalaya. Dalam kondisi mabuk mereka mengganggu proses pemungutan suara.</t>
+          <t>Annisa merupakan salah satu yang diambil sumpahnya pada Wisuda Profesi ke-65 Fakultas Kedokteran, Universitas Jenderal Soedirman. Begini perjuangannya.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6931306/nasib-tragis-wawan-di-pabrik-penggilingan-gabah-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6932111/daftar-6-pj-bupatiwali-kota-di-jabar-yang-segera-dilantik</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Nasib Tragis Wawan di Pabrik Penggilingan Gabah Tasikmalaya</t>
+          <t>Daftar 6 Pj Bupati/Wali Kota di Jabar yang Segera Dilantik</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45183.7</v>
+        <v>45184.36111111111</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Kecelakaan kerja yang berakibat fatal terjadi di pabrik penggilingan gabah di Cipedes, Kota Tasikmalaya, Kamis (14/9/2023) siang. Satu pekerja tewas.</t>
+          <t>Kemendagri sudah menetapkan enam penjabat bupati dan wali kota di Jabar. Berikut ini nama-namanya.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6928608/semringah-warga-tasikmalaya-dapat-bantuan-sumur-bor-di-tengah-krisis-air</t>
+          <t>https://www.detik.com/jabar/berita/d-6931513/jabar-hari-ini-nasib-tragis-wawan-hingga-tendangan-maut-perenggut-nyawa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Semringah Warga Tasikmalaya Dapat Bantuan Sumur Bor di Tengah Krisis Air</t>
+          <t>Jabar Hari Ini: Nasib Tragis Wawan hingga Tendangan Maut Perenggut Nyawa</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45182.70833333334</v>
+        <v>45183.91736111111</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Warga RW 04 Kampung Cibangbay Kelurahan Setiawargi Kecamatan Tamansari Kota Tasikmalaya semringah karena adanya pembangunan sumur bor.</t>
+          <t>Beragam peristiwa terjadi di Jabar hari ini. Mulai dari nasib tragis Wawan tewas tergiling mesin hingga peluang Ridwan Kamil dampingi Prabowo.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6927675/polisi-pastikan-fajar-dikeroyok-sebelum-tewas-di-bawah-jembatan-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6931486/4-pria-mabuk-dicokok-polisi-usai-berulah-di-pilkades-tasikmalaya</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Polisi Pastikan Fajar Dikeroyok Sebelum Tewas di Bawah Jembatan Tasik</t>
+          <t>4 Pria Mabuk Dicokok Polisi Usai Berulah di Pilkades Tasikmalaya</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45181.85138888889</v>
+        <v>45183.73819444444</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Polisi memastikan Fajar Muhamad Nuralam (26) dikeroyok sekelompok orang sebelum ditemukan tewas di bawah jembatan.</t>
+          <t>Polisi mengamankan empat pria yang dianggap berbuat onar di lokasi Pilkades Tasikmalaya. Dalam kondisi mabuk mereka mengganggu proses pemungutan suara.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6927030/dprd-jabar-ungkap-progres-terkini-cdpob-subang-utara</t>
+          <t>https://www.detik.com/jabar/berita/d-6931306/nasib-tragis-wawan-di-pabrik-penggilingan-gabah-tasikmalaya</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DPRD Jabar Ungkap Progres Terkini CDPOB Subang Utara</t>
+          <t>Nasib Tragis Wawan di Pabrik Penggilingan Gabah Tasikmalaya</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45181.64791666667</v>
+        <v>45183.7</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Subang Utara menjadi salah satu daerah yang telah diusulkan menjadi CDPOB di Jabar. Kini, DPRD Jabar tengah melakukan penataan pada daerah tersebut.</t>
+          <t>Kecelakaan kerja yang berakibat fatal terjadi di pabrik penggilingan gabah di Cipedes, Kota Tasikmalaya, Kamis (14/9/2023) siang. Satu pekerja tewas.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6926601/pilu-keluarga-pemuda-yang-ditemukan-tewas-di-bawah-jembatan-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6928608/semringah-warga-tasikmalaya-dapat-bantuan-sumur-bor-di-tengah-krisis-air</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pilu Keluarga Pemuda yang Ditemukan Tewas di Bawah Jembatan Tasik</t>
+          <t>Semringah Warga Tasikmalaya Dapat Bantuan Sumur Bor di Tengah Krisis Air</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45181.53194444445</v>
+        <v>45182.70833333334</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kematian Fajar Muhamad Nuralam (26), warga Kampung Kebon Tengah, Kota Tasikmalaya menyisakan luka mendalam bagi pihak keluarga.</t>
+          <t>Warga RW 04 Kampung Cibangbay Kelurahan Setiawargi Kecamatan Tamansari Kota Tasikmalaya semringah karena adanya pembangunan sumur bor.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6924382/markas-damkar-tasik-masih-di-kolam-ikan-saat-kebakaran-meningkat</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6927675/polisi-pastikan-fajar-dikeroyok-sebelum-tewas-di-bawah-jembatan-tasik</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Markas Damkar Tasik Masih di Kolam Ikan Saat Kebakaran Meningkat</t>
+          <t>Polisi Pastikan Fajar Dikeroyok Sebelum Tewas di Bawah Jembatan Tasik</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45180.52083333334</v>
+        <v>45181.85138888889</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Intensitas kebakaran di Kota Tasikmalaya masih meningkat. Tetapi sarana dan prasarana Damkar Tasikmalaya masih minim, dan masih bermarkas di kolam ikan.</t>
+          <t>Polisi memastikan Fajar Muhamad Nuralam (26) dikeroyok sekelompok orang sebelum ditemukan tewas di bawah jembatan.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6921966/polisi-temukan-celurit-di-tkp-pria-tewas-dengan-luka-bacok</t>
+          <t>https://www.detik.com/jabar/berita/d-6927030/dprd-jabar-ungkap-progres-terkini-cdpob-subang-utara</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Polisi Temukan Celurit di TKP Pria Tewas dengan Luka Bacok</t>
+          <t>DPRD Jabar Ungkap Progres Terkini CDPOB Subang Utara</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45178.57361111111</v>
+        <v>45181.64791666667</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Polisi masih melakukan penyelidikan terkait kasus kematian Fajar Muhamad Nuralam (26), warga Kota Tasikmalaya. Korban ditemukan tewas di bawah jembatan.</t>
+          <t>Subang Utara menjadi salah satu daerah yang telah diusulkan menjadi CDPOB di Jabar. Kini, DPRD Jabar tengah melakukan penataan pada daerah tersebut.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6921847/pria-ditemukan-tewas-dengan-luka-bacok-di-bawah-jembatan-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6926601/pilu-keluarga-pemuda-yang-ditemukan-tewas-di-bawah-jembatan-tasik</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Pria Ditemukan Tewas dengan Luka Bacok di Bawah Jembatan Tasik</t>
+          <t>Pilu Keluarga Pemuda yang Ditemukan Tewas di Bawah Jembatan Tasik</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45178.49444444444</v>
+        <v>45181.53194444445</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Seorang pemuda ditemukan tewas dengan luka bacok di Sungai Ciloseh persis di bawah jembatan Jalan Letnan Harun, Kecamatan Bungursari, Kota Tasikmalaya.</t>
+          <t>Kematian Fajar Muhamad Nuralam (26), warga Kampung Kebon Tengah, Kota Tasikmalaya menyisakan luka mendalam bagi pihak keluarga.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6914370/pesan-panglima-tni-agar-prajurit-selalu-bermanfaat-untuk-rakyat</t>
+          <t>https://www.detik.com/jabar/berita/d-6924382/markas-damkar-tasik-masih-di-kolam-ikan-saat-kebakaran-meningkat</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pesan Panglima TNI agar Prajurit Selalu Bermanfaat untuk Rakyat</t>
+          <t>Markas Damkar Tasik Masih di Kolam Ikan Saat Kebakaran Meningkat</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45174.58819444444</v>
+        <v>45180.52083333334</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Panglima TNI Laksamana Yudo Margono selalu mengingatkan para prajuritnya untuk bermanfaat bagi rakyat.</t>
+          <t>Intensitas kebakaran di Kota Tasikmalaya masih meningkat. Tetapi sarana dan prasarana Damkar Tasikmalaya masih minim, dan masih bermarkas di kolam ikan.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6914100/blak-blakan-ridwan-kamil-uu-ruzhanul-ulum-soal-rencana-politiknya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6921966/polisi-temukan-celurit-di-tkp-pria-tewas-dengan-luka-bacok</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Blak-blakan Ridwan Kamil-Uu Ruzhanul Ulum soal Rencana Politiknya</t>
+          <t>Polisi Temukan Celurit di TKP Pria Tewas dengan Luka Bacok</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45174.51041666666</v>
+        <v>45178.57361111111</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Ridwan Kamil dan Uu Ruzhanul Ulum blak-blakan soal rencana langkah kariernya usai tak lagi menjadi Gubernur dan Wakil Gubernur Jabar.</t>
+          <t>Polisi masih melakukan penyelidikan terkait kasus kematian Fajar Muhamad Nuralam (26), warga Kota Tasikmalaya. Korban ditemukan tewas di bawah jembatan.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6913681/viral-konvoi-pernikahan-anak-juragan-tekstil-disambut-warga-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6921847/pria-ditemukan-tewas-dengan-luka-bacok-di-bawah-jembatan-tasik</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Viral Konvoi Pernikahan Anak Juragan Tekstil Disambut Warga Tasikmalaya</t>
+          <t>Pria Ditemukan Tewas dengan Luka Bacok di Bawah Jembatan Tasik</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45174.35138888889</v>
+        <v>45178.49444444444</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Iring-iringan pengantin yang dinarasikan seagai perayaan pernikahan 'sultan' di Tasikmalaya viral di media sosial. Ini fakta di baliknya.</t>
+          <t>Seorang pemuda ditemukan tewas dengan luka bacok di Sungai Ciloseh persis di bawah jembatan Jalan Letnan Harun, Kecamatan Bungursari, Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6910340/aksi-pemuda-mabuk-rusak-masjid-berujung-serahkan-diri</t>
+          <t>https://news.detik.com/berita/d-6914370/pesan-panglima-tni-agar-prajurit-selalu-bermanfaat-untuk-rakyat</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aksi Pemuda Mabuk Rusak Masjid Berujung Serahkan Diri</t>
+          <t>Pesan Panglima TNI agar Prajurit Selalu Bermanfaat untuk Rakyat</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45172.54166666666</v>
+        <v>45174.58819444444</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pemuda bernama Hibar hilang kesadaran karena mabuk. Tanpa alasan yang jelas ia nekat merusak Masjid Jami Al Hidayah di Tasikmalaya.</t>
+          <t>Panglima TNI Laksamana Yudo Margono selalu mengingatkan para prajuritnya untuk bermanfaat bagi rakyat.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/wisata/d-6907945/kampung-dokdak-jadi-trip-wisata-baru-di-ciamis</t>
+          <t>https://www.detik.com/jabar/berita/d-6914100/blak-blakan-ridwan-kamil-uu-ruzhanul-ulum-soal-rencana-politiknya</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kampung Dokdak Jadi Trip Wisata Baru di Ciamis</t>
+          <t>Blak-blakan Ridwan Kamil-Uu Ruzhanul Ulum soal Rencana Politiknya</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45172.41666666666</v>
+        <v>45174.51041666666</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kampung Dokdak, julukan sentra pembuatan perkakas peralatan pertanian di Kabupaten Ciamis, bakal dibuka menjadi salah satu trip kunjungan wisata baru.</t>
+          <t>Ridwan Kamil dan Uu Ruzhanul Ulum blak-blakan soal rencana langkah kariernya usai tak lagi menjadi Gubernur dan Wakil Gubernur Jabar.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/detikpedia/d-6909039/latar-belakang-pemberontakan-ditii-di-seluruh-daerah-dan-penyelesaiannya</t>
+          <t>https://www.detik.com/jabar/berita/d-6913681/viral-konvoi-pernikahan-anak-juragan-tekstil-disambut-warga-tasikmalaya</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Latar Belakang Pemberontakan DI/TII di Seluruh Daerah dan Penyelesaiannya</t>
+          <t>Viral Konvoi Pernikahan Anak Juragan Tekstil Disambut Warga Tasikmalaya</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45172.375</v>
+        <v>45174.35138888889</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jadi pemberontakan pertama pasca kemerdekaan, ini latar belakang pergerakan DI/TII di seluruh daerah Indonesia.</t>
+          <t>Iring-iringan pengantin yang dinarasikan seagai perayaan pernikahan 'sultan' di Tasikmalaya viral di media sosial. Ini fakta di baliknya.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6909398/senyum-anies-baswedan-saat-ditanya-duet-dengan-cak-imin-di-pilpres</t>
+          <t>https://www.detik.com/jabar/berita/d-6910340/aksi-pemuda-mabuk-rusak-masjid-berujung-serahkan-diri</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Senyum Anies Baswedan Saat Ditanya Duet dengan Cak Imin di Pilpres</t>
+          <t>Aksi Pemuda Mabuk Rusak Masjid Berujung Serahkan Diri</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45171.58819444444</v>
+        <v>45172.54166666666</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Manuver politik yang tengah dilakukan Anies Baswedan dan Partai NasDem tengah menjadi isu sentral Pilpres 2024.</t>
+          <t>Pemuda bernama Hibar hilang kesadaran karena mabuk. Tanpa alasan yang jelas ia nekat merusak Masjid Jami Al Hidayah di Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6909287/bendera-partai-demokrat-sambut-kedatangan-anies-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/wisata/d-6907945/kampung-dokdak-jadi-trip-wisata-baru-di-ciamis</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bendera Partai Demokrat 'Sambut' Kedatangan Anies di Tasikmalaya</t>
+          <t>Kampung Dokdak Jadi Trip Wisata Baru di Ciamis</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45171.53194444445</v>
+        <v>45172.41666666666</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bakal calon presiden Anies Baswedan menghadiri acara jalan sehat PKS di Tasikmalaya. Dalam acara itu terlihat juga berkibar bendera Partai Demokrat.</t>
+          <t>Kampung Dokdak, julukan sentra pembuatan perkakas peralatan pertanian di Kabupaten Ciamis, bakal dibuka menjadi salah satu trip kunjungan wisata baru.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6909173/anies-baswedan-bila-ada-yang-berbeda-dihormati</t>
+          <t>https://www.detik.com/edu/detikpedia/d-6909039/latar-belakang-pemberontakan-ditii-di-seluruh-daerah-dan-penyelesaiannya</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Anies Baswedan: Bila Ada yang Berbeda, Dihormati</t>
+          <t>Latar Belakang Pemberontakan DI/TII di Seluruh Daerah dan Penyelesaiannya</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45171.47013888889</v>
+        <v>45172.375</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Anies Baswedan berkunjung ke Tasikmalaya. Di sana, Anies Baswedan berbicara soal persaudaraan hingga perbedaan yang harus dihormati.</t>
+          <t>Jadi pemberontakan pertama pasca kemerdekaan, ini latar belakang pergerakan DI/TII di seluruh daerah Indonesia.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/bisnis/d-6908606/cuan-gede-dari-bisnis-perencana-pernikahan</t>
+          <t>https://www.detik.com/jabar/berita/d-6909398/senyum-anies-baswedan-saat-ditanya-duet-dengan-cak-imin-di-pilpres</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cuan Gede dari Bisnis Perencana Pernikahan</t>
+          <t>Senyum Anies Baswedan Saat Ditanya Duet dengan Cak Imin di Pilpres</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45171.22916666666</v>
+        <v>45171.58819444444</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Pada 2022 komunitas pelaku usaha perencanaan pernikahan atau wedding organizer di Taskimalaya membukukan nilai transaksi lebih dari Rp 13 miliar.</t>
+          <t>Manuver politik yang tengah dilakukan Anies Baswedan dan Partai NasDem tengah menjadi isu sentral Pilpres 2024.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://news.detik.com/pemilu/d-6908743/demokrat-keluar-pks-mau-jalan-bareng-anies-sapa-relawan-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6909287/bendera-partai-demokrat-sambut-kedatangan-anies-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Demokrat Keluar, PKS Mau Jalan Bareng Anies Sapa Relawan di Tasikmalaya</t>
+          <t>Bendera Partai Demokrat 'Sambut' Kedatangan Anies di Tasikmalaya</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45170.93472222222</v>
+        <v>45171.53194444445</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Menurutnya, kehadiran Anies pada acara tersebut merupakan wujud kolaborasi seluruh simpul relawan.</t>
+          <t>Bakal calon presiden Anies Baswedan menghadiri acara jalan sehat PKS di Tasikmalaya. Dalam acara itu terlihat juga berkibar bendera Partai Demokrat.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6908473/jabar-hari-ini-api-berkobar-di-gunung-walat-dan-kios-depan-unpas</t>
+          <t>https://www.detik.com/jabar/berita/d-6909173/anies-baswedan-bila-ada-yang-berbeda-dihormati</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Api Berkobar di Gunung Walat dan Kios Depan Unpas</t>
+          <t>Anies Baswedan: Bila Ada yang Berbeda, Dihormati</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45170.91666666666</v>
+        <v>45171.47013888889</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini, Jumat (1/9/2023). Seperti Gunung Walat dan kios depan Universitas Pasundan kebakaran.</t>
+          <t>Anies Baswedan berkunjung ke Tasikmalaya. Di sana, Anies Baswedan berbicara soal persaudaraan hingga perbedaan yang harus dihormati.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6907742/pengakuan-pemuda-mabuk-perusak-masjid-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/bisnis/d-6908606/cuan-gede-dari-bisnis-perencana-pernikahan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pengakuan Pemuda Mabuk Perusak Masjid di Tasikmalaya</t>
+          <t>Cuan Gede dari Bisnis Perencana Pernikahan</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45170.59513888889</v>
+        <v>45171.22916666666</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hibar (25), pemuda mabuk yang merusak Masjid Al Hidayah, Kota Tasikmalaya, terlihat lesu saat diperiksa di Mapolsek Indihiang.</t>
+          <t>Pada 2022 komunitas pelaku usaha perencanaan pernikahan atau wedding organizer di Taskimalaya membukukan nilai transaksi lebih dari Rp 13 miliar.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6907600/pemuda-mabuk-rusak-masjid-di-tasik-serahkan-diri-ke-polisi</t>
+          <t>https://news.detik.com/pemilu/d-6908743/demokrat-keluar-pks-mau-jalan-bareng-anies-sapa-relawan-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pemuda Mabuk Rusak Masjid di Tasik Serahkan Diri ke Polisi</t>
+          <t>Demokrat Keluar, PKS Mau Jalan Bareng Anies Sapa Relawan di Tasikmalaya</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45170.56041666667</v>
+        <v>45170.93472222222</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Pemuda Tasikmalaya yang merusak masjid dalam keadaan mabuk akhirnya menyerahkan diri ke polisi. Pria bernama Hibar itu sempat buron selama tiga hari.</t>
+          <t>Menurutnya, kehadiran Anies pada acara tersebut merupakan wujud kolaborasi seluruh simpul relawan.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6905843/masjid-dirusak-pemuda-mabuk-dmi-kota-tasikmalaya-angkat-bicara</t>
+          <t>https://www.detik.com/jabar/berita/d-6908473/jabar-hari-ini-api-berkobar-di-gunung-walat-dan-kios-depan-unpas</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Masjid Dirusak Pemuda Mabuk, DMI Kota Tasikmalaya Angkat Bicara</t>
+          <t>Jabar Hari Ini: Api Berkobar di Gunung Walat dan Kios Depan Unpas</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45169.89583333334</v>
+        <v>45170.91666666666</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Dewan Masjid Indonesia (DMI) Kota Tasikmalaya meminta pengurus masjid waspada, jika ada orang asing dan mencurigakan.</t>
+          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini, Jumat (1/9/2023). Seperti Gunung Walat dan kios depan Universitas Pasundan kebakaran.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6904971/polisi-buru-pemuda-mabuk-perusak-masjid-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6907742/pengakuan-pemuda-mabuk-perusak-masjid-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Polisi Buru Pemuda Mabuk Perusak Masjid di Tasikmalaya</t>
+          <t>Pengakuan Pemuda Mabuk Perusak Masjid di Tasikmalaya</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45169.34791666667</v>
+        <v>45170.59513888889</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Polisi masih memburu H (25), pemuda mabuk yang melakukan perusakan Masjid Al Hidayah, Kampung Cikiara, Kelurahan Panglayungan, Kecamatan Cipedes, Tasikmalaya.</t>
+          <t>Hibar (25), pemuda mabuk yang merusak Masjid Al Hidayah, Kota Tasikmalaya, terlihat lesu saat diperiksa di Mapolsek Indihiang.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6903698/jual-motor-curian-di-medsos-pria-pengangguran-tasik-diciduk-polisi</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6907600/pemuda-mabuk-rusak-masjid-di-tasik-serahkan-diri-ke-polisi</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jual Motor Curian di Medsos, Pria Pengangguran Tasik Diciduk Polisi</t>
+          <t>Pemuda Mabuk Rusak Masjid di Tasik Serahkan Diri ke Polisi</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45168.85416666666</v>
+        <v>45170.56041666667</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Aparat Polsek Tawang Kota Tasikmalaya menangkap pria berinisial A (30) warga Kabupaten Tasikmalaya terkait dengan penjualan sepeda motor hasil curian.</t>
+          <t>Pemuda Tasikmalaya yang merusak masjid dalam keadaan mabuk akhirnya menyerahkan diri ke polisi. Pria bernama Hibar itu sempat buron selama tiga hari.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6904461/pemuda-mabuk-rusak-masjid-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6905843/masjid-dirusak-pemuda-mabuk-dmi-kota-tasikmalaya-angkat-bicara</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pemuda Mabuk Rusak Masjid di Tasikmalaya</t>
+          <t>Masjid Dirusak Pemuda Mabuk, DMI Kota Tasikmalaya Angkat Bicara</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45168.81597222222</v>
+        <v>45169.89583333334</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Seorang pemuda merusak bangunan Masjid Jami Al Hidayah, Kampung Cikiara, Kelurahan Panglayungan, Kecamatan Cipedes, Kota Tasikmalaya.</t>
+          <t>Dewan Masjid Indonesia (DMI) Kota Tasikmalaya meminta pengurus masjid waspada, jika ada orang asing dan mencurigakan.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6901818/daftar-alamat-nomor-telepon-polsek-di-kota-dan-kabupaten-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6904971/polisi-buru-pemuda-mabuk-perusak-masjid-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Daftar Alamat-Nomor Telepon Polsek di Kota dan Kabupaten Tasikmalaya</t>
+          <t>Polisi Buru Pemuda Mabuk Perusak Masjid di Tasikmalaya</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
-        <v>45168.08333333334</v>
+        <v>45169.34791666667</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Bagi anda yang ingin mendapatkan layanan polsek di Kota dan Kabupaten Tasikmaaya, berikut detikJabar rangkum alamat, nomor telepon dan perwira yang memimpinnya.</t>
+          <t>Polisi masih memburu H (25), pemuda mabuk yang melakukan perusakan Masjid Al Hidayah, Kampung Cikiara, Kelurahan Panglayungan, Kecamatan Cipedes, Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6902459/cara-pemkot-tasikmalaya-cegah-kebakaran-di-tpsa</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6903698/jual-motor-curian-di-medsos-pria-pengangguran-tasik-diciduk-polisi</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cara Pemkot Tasikmalaya Cegah Kebakaran di TPSA</t>
+          <t>Jual Motor Curian di Medsos, Pria Pengangguran Tasik Diciduk Polisi</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
-        <v>45168.0625</v>
+        <v>45168.85416666666</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Dinas Lingkungan Hidup Kota Tasikmalaya melakukan penyemprotan cairan Eco Enzim cegah kebakaran di tempat pembuangan sampah akhir (TPSA).</t>
+          <t>Aparat Polsek Tawang Kota Tasikmalaya menangkap pria berinisial A (30) warga Kabupaten Tasikmalaya terkait dengan penjualan sepeda motor hasil curian.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6901779/10-insan-penggiat-seni-raih-diganjar-anugerah-budaya-kota-bandung-2023</t>
+          <t>https://www.detik.com/jabar/berita/d-6904461/pemuda-mabuk-rusak-masjid-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10 Insan Penggiat Seni Raih Diganjar Anugerah Budaya Kota Bandung 2023</t>
+          <t>Pemuda Mabuk Rusak Masjid di Tasikmalaya</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45168.04166666666</v>
+        <v>45168.81597222222</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10 Penggiat budaya Kota Bandung berhasil meraih penghargaan pada Anugerah Budaya Kota Bandung. Ini daftarnya.</t>
+          <t>Seorang pemuda merusak bangunan Masjid Jami Al Hidayah, Kampung Cikiara, Kelurahan Panglayungan, Kecamatan Cipedes, Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6901416/duh-bangunan-sejarah-koperasi-di-tasikmalaya-ambruk</t>
+          <t>https://www.detik.com/jabar/berita/d-6901818/daftar-alamat-nomor-telepon-polsek-di-kota-dan-kabupaten-tasikmalaya</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Duh! Bangunan Sejarah Koperasi di Tasikmalaya Ambruk</t>
+          <t>Daftar Alamat-Nomor Telepon Polsek di Kota dan Kabupaten Tasikmalaya</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
-        <v>45167.54236111111</v>
+        <v>45168.08333333334</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Bangunan bersejarah yang menjadi tempat Kongres Koperasi pertama di Jalan Moch Hatta Kota Tasikmalaya ambruk akibat lapuk dimakan usia.</t>
+          <t>Bagi anda yang ingin mendapatkan layanan polsek di Kota dan Kabupaten Tasikmaaya, berikut detikJabar rangkum alamat, nomor telepon dan perwira yang memimpinnya.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6899383/misteri-kematian-heroik-pemuda-korea-selatan-saat-bela-rakyat-garut</t>
+          <t>https://www.detik.com/jabar/berita/d-6902459/cara-pemkot-tasikmalaya-cegah-kebakaran-di-tpsa</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Misteri Kematian Heroik Pemuda Korea Selatan Saat Bela Rakyat Garut</t>
+          <t>Cara Pemkot Tasikmalaya Cegah Kebakaran di TPSA</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45167.33333333334</v>
+        <v>45168.0625</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Yang Chil Sung, atau Yang Chil Seong,alias Komarudin, memang tak setenar seperti artis Korea Selatan masa kini. Tapi jasanya untuk kemerdekaan RI sangat besar.</t>
+          <t>Dinas Lingkungan Hidup Kota Tasikmalaya melakukan penyemprotan cairan Eco Enzim cegah kebakaran di tempat pembuangan sampah akhir (TPSA).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/bisnis/d-6900025/sunyi-sepi-geliat-ekonomi-di-pasar-rakyat-cibeureum-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6901779/10-insan-penggiat-seni-raih-diganjar-anugerah-budaya-kota-bandung-2023</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sunyi Sepi Geliat Ekonomi di Pasar Rakyat Cibeureum Tasikmalaya</t>
+          <t>10 Insan Penggiat Seni Raih Diganjar Anugerah Budaya Kota Bandung 2023</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45167.22916666666</v>
+        <v>45168.04166666666</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Setahun usai diresmikan aktivitas ekonomi di pasar rakyat Cibeureum Kota Tasikmalaya masih sepi. Mayoritas kios dan los pedagang dalam keadaan tutup.</t>
+          <t>10 Penggiat budaya Kota Bandung berhasil meraih penghargaan pada Anugerah Budaya Kota Bandung. Ini daftarnya.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://sport.detik.com/sport-lain/d-6901008/ketum-issi-jabar-optimistis-balap-sepeda-kembali-bangkit</t>
+          <t>https://www.detik.com/jabar/berita/d-6901416/duh-bangunan-sejarah-koperasi-di-tasikmalaya-ambruk</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ketum ISSI Jabar Optimistis Balap Sepeda Kembali Bangkit</t>
+          <t>Duh! Bangunan Sejarah Koperasi di Tasikmalaya Ambruk</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45167.15833333333</v>
+        <v>45167.54236111111</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ketua Umum Pengprov Ikatan Sport Sepada Indonesia (ISSI) Jawa Barat, Iman Firmansyah, mengapresiasi hasil Babak Kualifikasi PON XXI dan Kejurnas ICF 2023.</t>
+          <t>Bangunan bersejarah yang menjadi tempat Kongres Koperasi pertama di Jalan Moch Hatta Kota Tasikmalaya ambruk akibat lapuk dimakan usia.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6900451/jabar-hari-ini-ayah-siksa-anak-gegara-dimintai-uang-jajan-di-sukabumi</t>
+          <t>https://www.detik.com/jabar/berita/d-6899383/misteri-kematian-heroik-pemuda-korea-selatan-saat-bela-rakyat-garut</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Ayah Siksa Anak gegara Dimintai Uang Jajan di Sukabumi</t>
+          <t>Misteri Kematian Heroik Pemuda Korea Selatan Saat Bela Rakyat Garut</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45166.91666666666</v>
+        <v>45167.33333333334</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terkini di Jawa Barat tersaji di kanal detikJabar. Salah satunya aksi ayah di Sukabumi menyiksa anak 3 tahun gara-gara dimintai uang jajan.</t>
+          <t>Yang Chil Sung, atau Yang Chil Seong,alias Komarudin, memang tak setenar seperti artis Korea Selatan masa kini. Tapi jasanya untuk kemerdekaan RI sangat besar.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6899851/boncengan-naik-motor-3-siswa-smp-di-tasik-terperosok-ke-jurang</t>
+          <t>https://www.detik.com/jabar/bisnis/d-6900025/sunyi-sepi-geliat-ekonomi-di-pasar-rakyat-cibeureum-tasikmalaya</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Boncengan Naik Motor, 3 Siswa SMP di Tasik Terperosok ke Jurang</t>
+          <t>Sunyi Sepi Geliat Ekonomi di Pasar Rakyat Cibeureum Tasikmalaya</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45166.61805555555</v>
+        <v>45167.22916666666</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tiga siswa SMP Negeri 17 Kota Tasikmalaya terperosok ke jurang sedalam 10 meter akibat kecelakaan motor di Kampung Gobang, Kota Tasikmalaya, Senin (28/8).</t>
+          <t>Setahun usai diresmikan aktivitas ekonomi di pasar rakyat Cibeureum Kota Tasikmalaya masih sepi. Mayoritas kios dan los pedagang dalam keadaan tutup.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6899226/wanita-berbaju-biru-ditemukan-tewas-di-pinggir-rel-tasikmalaya</t>
+          <t>https://sport.detik.com/sport-lain/d-6901008/ketum-issi-jabar-optimistis-balap-sepeda-kembali-bangkit</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Wanita Berbaju Biru Ditemukan Tewas di Pinggir Rel Tasikmalaya</t>
+          <t>Ketum ISSI Jabar Optimistis Balap Sepeda Kembali Bangkit</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45166.46527777778</v>
+        <v>45167.15833333333</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Seorang perempuan ditemukan tewas di pinggir rel kereta api sekitar Kampung Cicurug Bata, Kelurahan Cikalang  Tawang Kota Tasikmalaya, Senin (28/8) pagi.</t>
+          <t>Ketua Umum Pengprov Ikatan Sport Sepada Indonesia (ISSI) Jawa Barat, Iman Firmansyah, mengapresiasi hasil Babak Kualifikasi PON XXI dan Kejurnas ICF 2023.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6897181/tak-mau-kecolongan-polisi-imbau-warga-tak-bakar-sampah-di-tpa-cikundul</t>
+          <t>https://www.detik.com/jabar/berita/d-6900451/jabar-hari-ini-ayah-siksa-anak-gegara-dimintai-uang-jajan-di-sukabumi</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tak Mau Kecolongan, Polisi Imbau Warga Tak Bakar Sampah di TPA Cikundul</t>
+          <t>Jabar Hari Ini: Ayah Siksa Anak gegara Dimintai Uang Jajan di Sukabumi</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45165.125</v>
+        <v>45166.91666666666</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kasus kebakaran di TPA sampah tengah menjadi sorotan. Polres Sukabumi Kota pun mengimbau warga tak membakar sampah demi mencegah terjadinya kebakaran.</t>
+          <t>Beragam peristiwa terkini di Jawa Barat tersaji di kanal detikJabar. Salah satunya aksi ayah di Sukabumi menyiksa anak 3 tahun gara-gara dimintai uang jajan.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6896760/mengenal-yang-chil-sung-oppa-korea-yang-dianggap-pahlawan-di-garut</t>
+          <t>https://www.detik.com/jabar/berita/d-6899851/boncengan-naik-motor-3-siswa-smp-di-tasik-terperosok-ke-jurang</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mengenal Yang Chil Sung, 'Oppa Korea' yang Dianggap Pahlawan di Garut</t>
+          <t>Boncengan Naik Motor, 3 Siswa SMP di Tasik Terperosok ke Jurang</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45164.79166666666</v>
+        <v>45166.61805555555</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pemerintah Kabupaten Garut dan Korea Selatan akan mengangkat kisah Yang Chil Sung, atau Yang Chil Seong alias Komarudin ke layar lebar. Siapa Yang Chil Sung?</t>
+          <t>Tiga siswa SMP Negeri 17 Kota Tasikmalaya terperosok ke jurang sedalam 10 meter akibat kecelakaan motor di Kampung Gobang, Kota Tasikmalaya, Senin (28/8).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6896983/ribuan-warga-priangan-timur-nikmati-bakti-sosial-alumni-akabri-1989</t>
+          <t>https://www.detik.com/jabar/berita/d-6899226/wanita-berbaju-biru-ditemukan-tewas-di-pinggir-rel-tasikmalaya</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ribuan Warga Priangan Timur Nikmati Bakti Sosial Alumni AKABRI 1989</t>
+          <t>Wanita Berbaju Biru Ditemukan Tewas di Pinggir Rel Tasikmalaya</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45164.60347222222</v>
+        <v>45166.46527777778</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Alumni Taruna AKABRI 1989 menggelar bakti sosial di Kota Tasikmalaya. Ribuan masyarakat menerima manfaat dari acara tersebut.</t>
+          <t>Seorang perempuan ditemukan tewas di pinggir rel kereta api sekitar Kampung Cicurug Bata, Kelurahan Cikalang  Tawang Kota Tasikmalaya, Senin (28/8) pagi.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6896868/altar-89-gelar-bakti-kesehatan-sosial-panglima-tni-dan-kapolri-apresiasi</t>
+          <t>https://www.detik.com/jabar/berita/d-6897181/tak-mau-kecolongan-polisi-imbau-warga-tak-bakar-sampah-di-tpa-cikundul</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Altar 89 Gelar Bakti Kesehatan-Sosial, Panglima TNI dan Kapolri Apresiasi</t>
+          <t>Tak Mau Kecolongan, Polisi Imbau Warga Tak Bakar Sampah di TPA Cikundul</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45164.55208333334</v>
+        <v>45165.125</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Kegiatan itu diselenggarakan dalam rangka 34 tahun pengabdian Akabri 1989 (Alumni Lembah Tidar/Altar 1989).</t>
+          <t>Kasus kebakaran di TPA sampah tengah menjadi sorotan. Polres Sukabumi Kota pun mengimbau warga tak membakar sampah demi mencegah terjadinya kebakaran.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6896590/dprd-ungkap-urgensi-pemekaran-9-cdpob-di-jawa-barat</t>
+          <t>https://www.detik.com/jabar/berita/d-6896760/mengenal-yang-chil-sung-oppa-korea-yang-dianggap-pahlawan-di-garut</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DPRD Ungkap Urgensi Pemekaran 9 CDPOB di Jawa Barat</t>
+          <t>Mengenal Yang Chil Sung, 'Oppa Korea' yang Dianggap Pahlawan di Garut</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45164.38611111111</v>
+        <v>45164.79166666666</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Wakil Ketua DPRD Jabar Ahmad Ruyat mengungkap urgensi terbentuknya daerah otonomi baru (DOB) di Jabar.</t>
+          <t>Pemerintah Kabupaten Garut dan Korea Selatan akan mengangkat kisah Yang Chil Sung, atau Yang Chil Seong alias Komarudin ke layar lebar. Siapa Yang Chil Sung?</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6896082/derita-warga-tasikmalaya-2-bulan-kesulitan-air-bersih</t>
+          <t>https://www.detik.com/jabar/berita/d-6896983/ribuan-warga-priangan-timur-nikmati-bakti-sosial-alumni-akabri-1989</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Derita Warga Tasikmalaya 2 Bulan Kesulitan Air Bersih</t>
+          <t>Ribuan Warga Priangan Timur Nikmati Bakti Sosial Alumni AKABRI 1989</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45164.14583333334</v>
+        <v>45164.60347222222</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Warga di Kampung Cibangbay, Kelurahan Setiawargi, Kecamatan Tamansari, Kota Tasikmalaya, kesulitan air bersih.</t>
+          <t>Alumni Taruna AKABRI 1989 menggelar bakti sosial di Kota Tasikmalaya. Ribuan masyarakat menerima manfaat dari acara tersebut.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6896244/investasi-di-kawasan-arumanis-terus-naik-capai-rp-271-t-dalam-5-tahun</t>
+          <t>https://news.detik.com/berita/d-6896868/altar-89-gelar-bakti-kesehatan-sosial-panglima-tni-dan-kapolri-apresiasi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Investasi di Kawasan Arumanis Terus Naik, Capai Rp 27,1 T dalam 5 Tahun</t>
+          <t>Altar 89 Gelar Bakti Kesehatan-Sosial, Panglima TNI dan Kapolri Apresiasi</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45163.85833333333</v>
+        <v>45164.55208333334</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Pembangunan akses jalan yang masif serta banyaknya event yang digelar di sana, mendorong investasi di kawasan yang disebut Arumanis tersebut.</t>
+          <t>Kegiatan itu diselenggarakan dalam rangka 34 tahun pengabdian Akabri 1989 (Alumni Lembah Tidar/Altar 1989).</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/budaya/d-6895191/pesan-persatuan-dan-kesatuan-dari-kirab-merah-putih-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6896590/dprd-ungkap-urgensi-pemekaran-9-cdpob-di-jawa-barat</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pesan Persatuan dan Kesatuan dari Kirab Merah Putih Tasikmalaya</t>
+          <t>DPRD Ungkap Urgensi Pemekaran 9 CDPOB di Jawa Barat</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45163.625</v>
+        <v>45164.38611111111</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Masyarakat Tasikmalaya larut dalam kemeriahan Kirab Merah Putih. Pawai yang diikuti oleh masyarakat wilayah Priangan Timur itu membawa pesan khusus.</t>
+          <t>Wakil Ketua DPRD Jabar Ahmad Ruyat mengungkap urgensi terbentuknya daerah otonomi baru (DOB) di Jabar.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6894159/kue-di-meja-bikin-tukang-cilok-tasikmalaya-mau-habisi-ibu</t>
+          <t>https://www.detik.com/jabar/berita/d-6896082/derita-warga-tasikmalaya-2-bulan-kesulitan-air-bersih</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kue di Meja Bikin Tukang Cilok Tasikmalaya Mau Habisi Ibu</t>
+          <t>Derita Warga Tasikmalaya 2 Bulan Kesulitan Air Bersih</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45163.35416666666</v>
+        <v>45164.14583333334</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Amarah tak terbendung Doni terhadap Een (64) ibu kandungnya sendiri berujung bui. Pangkal masalahnya gegara kue di meja.</t>
+          <t>Warga di Kampung Cibangbay, Kelurahan Setiawargi, Kecamatan Tamansari, Kota Tasikmalaya, kesulitan air bersih.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6893612/sahabat-baik-bantu-kakek-abbas-penambal-panci-punya-warung-dan-usaha-snack</t>
+          <t>https://www.detik.com/jabar/berita/d-6896244/investasi-di-kawasan-arumanis-terus-naik-capai-rp-271-t-dalam-5-tahun</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Sahabat Baik Bantu Kakek Abbas Penambal Panci Punya Warung dan Usaha Snack</t>
+          <t>Investasi di Kawasan Arumanis Terus Naik, Capai Rp 27,1 T dalam 5 Tahun</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45162.66180555556</v>
+        <v>45163.85833333333</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Donasi dari sahabat baik dimanfaatkan Kakek Abbas, penambal panci untuk membuka warung hingga memulai usaha snack. Ia juga merenovasi dapur dari donasi itu.</t>
+          <t>Pembangunan akses jalan yang masif serta banyaknya event yang digelar di sana, mendorong investasi di kawasan yang disebut Arumanis tersebut.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6893554/ancam-ibu-pakai-kapak-doni-tukang-cilok-tasik-dijebloskan-ke-penjara</t>
+          <t>https://www.detik.com/jabar/budaya/d-6895191/pesan-persatuan-dan-kesatuan-dari-kirab-merah-putih-tasikmalaya</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ancam Ibu Pakai Kapak, Doni Tukang Cilok Tasik Dijebloskan ke Penjara</t>
+          <t>Pesan Persatuan dan Kesatuan dari Kirab Merah Putih Tasikmalaya</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45162.64027777778</v>
+        <v>45163.625</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Doni (33) tukang cilok di Gunung Tanjung, Kabupaten Tasikmalaya, pemuda yang mengancam ibu kandungnya dengan sebilah kapak akhirnya dijebloskan ke penjara.</t>
+          <t>Masyarakat Tasikmalaya larut dalam kemeriahan Kirab Merah Putih. Pawai yang diikuti oleh masyarakat wilayah Priangan Timur itu membawa pesan khusus.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6892639/empat-bangunan-dan-belasan-motor-hangus-dalam-kebakaran-di-tasik</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6894159/kue-di-meja-bikin-tukang-cilok-tasikmalaya-mau-habisi-ibu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Empat Bangunan dan Belasan Motor Hangus dalam Kebakaran di Tasik</t>
+          <t>Kue di Meja Bikin Tukang Cilok Tasikmalaya Mau Habisi Ibu</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45162.32708333333</v>
+        <v>45163.35416666666</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Kebakaran hebat terjadi di Kampung Gunung Kanyere, Kelurahan Mulyasari, Kota Tasikmalaya, Rabu (23/8/2023) malam. Tiga rumah dan satu musala terbakar</t>
+          <t>Amarah tak terbendung Doni terhadap Een (64) ibu kandungnya sendiri berujung bui. Pangkal masalahnya gegara kue di meja.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6892069/beringas-pria-tasikmalaya-ancam-ibu-pakai-kapak</t>
+          <t>https://news.detik.com/berita/d-6893612/sahabat-baik-bantu-kakek-abbas-penambal-panci-punya-warung-dan-usaha-snack</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Beringas Pria Tasikmalaya Ancam Ibu Pakai Kapak</t>
+          <t>Sahabat Baik Bantu Kakek Abbas Penambal Panci Punya Warung dan Usaha Snack</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45162.3125</v>
+        <v>45162.66180555556</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Seorang pria di Tasikmalaya bertindak beringas. Ia mengancam ibunya sendiri sambil membawa kapak.</t>
+          <t>Donasi dari sahabat baik dimanfaatkan Kakek Abbas, penambal panci untuk membuka warung hingga memulai usaha snack. Ia juga merenovasi dapur dari donasi itu.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6891742/kue-bikin-pria-tasikmalaya-nyaris-aniaya-ibu-pakai-kapak</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6893554/ancam-ibu-pakai-kapak-doni-tukang-cilok-tasik-dijebloskan-ke-penjara</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kue Bikin Pria Tasikmalaya Nyaris Aniaya Ibu Pakai Kapak</t>
+          <t>Ancam Ibu Pakai Kapak, Doni Tukang Cilok Tasik Dijebloskan ke Penjara</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45161.69791666666</v>
+        <v>45162.64027777778</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Seorang pria di Tasikmalaya nyaris menyiksa ibunya sendiri gegara kue. Pelaku bahkan membawa kapak sambil mengancam.</t>
+          <t>Doni (33) tukang cilok di Gunung Tanjung, Kabupaten Tasikmalaya, pemuda yang mengancam ibu kandungnya dengan sebilah kapak akhirnya dijebloskan ke penjara.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6891579/nekat-jualan-miras-pelajar-smk-di-tasik-ditangkap-polisi</t>
+          <t>https://www.detik.com/jabar/berita/d-6892639/empat-bangunan-dan-belasan-motor-hangus-dalam-kebakaran-di-tasik</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Nekat Jualan Miras, Pelajar SMK di Tasik Ditangkap Polisi</t>
+          <t>Empat Bangunan dan Belasan Motor Hangus dalam Kebakaran di Tasik</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45161.62361111111</v>
+        <v>45162.32708333333</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Seorang pelajar SMK di Kota Tasikmalaya ditangkap polisi gegara menjual minuman keras. Motif ekonomi menjadi alasan pelajar itu nekat menjual minuman keras.</t>
+          <t>Kebakaran hebat terjadi di Kampung Gunung Kanyere, Kelurahan Mulyasari, Kota Tasikmalaya, Rabu (23/8/2023) malam. Tiga rumah dan satu musala terbakar</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6888983/setelah-bandung-dewa-19-bakal-sapa-baladewa-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6892069/beringas-pria-tasikmalaya-ancam-ibu-pakai-kapak</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Setelah Bandung, Dewa 19 Bakal Sapa Baladewa di Tasikmalaya</t>
+          <t>Beringas Pria Tasikmalaya Ancam Ibu Pakai Kapak</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45160.75</v>
+        <v>45162.3125</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Setelah sukses memuaskan penggemarnya di Bandung, grup band Dewa 19 dijadwalkan akan menggelar konser di Tasikmalaya pada 21 Oktober 2023 mendatang.</t>
+          <t>Seorang pria di Tasikmalaya bertindak beringas. Ia mengancam ibunya sendiri sambil membawa kapak.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6888915/mulan-jameela-hingga-ali-syakieb-berebut-kursi-dpr-di-priangan-timur</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6891742/kue-bikin-pria-tasikmalaya-nyaris-aniaya-ibu-pakai-kapak</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mulan Jameela hingga Ali Syakieb Berebut Kursi DPR di Priangan Timur</t>
+          <t>Kue Bikin Pria Tasikmalaya Nyaris Aniaya Ibu Pakai Kapak</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45160.5</v>
+        <v>45161.69791666666</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Nama-nama beken bakal memperebutkan kursi anggota DPR RI dari dapil Jabar XI. Dapil tersebut meliputi wilayah Priangan Timur.</t>
+          <t>Seorang pria di Tasikmalaya nyaris menyiksa ibunya sendiri gegara kue. Pelaku bahkan membawa kapak sambil mengancam.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6888137/intrik-penjual-narkoba-sebarkan-barang-haram-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6891579/nekat-jualan-miras-pelajar-smk-di-tasik-ditangkap-polisi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Intrik Penjual Narkoba Sebarkan Barang Haram di Tasikmalaya</t>
+          <t>Nekat Jualan Miras, Pelajar SMK di Tasik Ditangkap Polisi</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45160.25</v>
+        <v>45161.62361111111</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Pada periode Juli hingga pertengahan Agustus 2023, Satnarkoba Polres Tasikmalaya Kota mengamankan 20 tersangka kasus penyalahgunaan narkoba.</t>
+          <t>Seorang pelajar SMK di Kota Tasikmalaya ditangkap polisi gegara menjual minuman keras. Motif ekonomi menjadi alasan pelajar itu nekat menjual minuman keras.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6888428/semringah-fajar-usai-motor-yang-dicolong-teman-kini-kembali</t>
+          <t>https://www.detik.com/jabar/berita/d-6888983/setelah-bandung-dewa-19-bakal-sapa-baladewa-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Semringah Fajar Usai Motor yang Dicolong Teman Kini Kembali</t>
+          <t>Setelah Bandung, Dewa 19 Bakal Sapa Baladewa di Tasikmalaya</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45160.10416666666</v>
+        <v>45160.75</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Fajar begitu semringah kala sepeda motor yang dulu dicuri temannya kini sudah kembali. Sebaliknya, temannya kini harus berurusan dengan polisi.</t>
+          <t>Setelah sukses memuaskan penggemarnya di Bandung, grup band Dewa 19 dijadwalkan akan menggelar konser di Tasikmalaya pada 21 Oktober 2023 mendatang.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6887845/peringatan-dini-kekeringan-di-jabar-bandung-barat-berstatus-awas</t>
+          <t>https://www.detik.com/jabar/berita/d-6888915/mulan-jameela-hingga-ali-syakieb-berebut-kursi-dpr-di-priangan-timur</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Peringatan Dini Kekeringan di Jabar, Bandung Barat Berstatus Awas</t>
+          <t>Mulan Jameela hingga Ali Syakieb Berebut Kursi DPR di Priangan Timur</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45159.64513888889</v>
+        <v>45160.5</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Kekeringan melanda sejumlah daerah di Jabar. Gubernur Jabar Ridwan Kamil pun mengaku telah menyiagakan petugas untuk membantu daerah-daerah yang kekeringan.</t>
+          <t>Nama-nama beken bakal memperebutkan kursi anggota DPR RI dari dapil Jabar XI. Dapil tersebut meliputi wilayah Priangan Timur.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6886081/melihat-keseruan-lomba-ngurek-berhadiah-sepeda-motor-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6888137/intrik-penjual-narkoba-sebarkan-barang-haram-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Melihat Keseruan Lomba Ngurek Berhadiah Sepeda Motor di Tasikmalaya</t>
+          <t>Intrik Penjual Narkoba Sebarkan Barang Haram di Tasikmalaya</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45158.61111111111</v>
+        <v>45160.25</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Perlombaan unik dihelat masyarakat Desa Pagersari, Kecamatan Pager Ageung, Kabupaten Tasikmalaya. Mereka menggelar perlombaan ngurek alias memancing belut.</t>
+          <t>Pada periode Juli hingga pertengahan Agustus 2023, Satnarkoba Polres Tasikmalaya Kota mengamankan 20 tersangka kasus penyalahgunaan narkoba.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6885423/lihai-penipu-di-tasik-tukar-ponsel-rp-33-juta-dengan-kunci-mobil-palsu</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6888428/semringah-fajar-usai-motor-yang-dicolong-teman-kini-kembali</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Lihai Penipu di Tasik Tukar Ponsel Rp 33 Juta dengan Kunci Mobil Palsu</t>
+          <t>Semringah Fajar Usai Motor yang Dicolong Teman Kini Kembali</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45157.91041666667</v>
+        <v>45160.10416666666</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Aksi penipuan menimpa gerai penjual ponsel di Tasikmalaya. Dua unit ponsel dengan nilai Rp 33 juta raib digondol pelaku saat transaksi cash on delivery (COD).</t>
+          <t>Fajar begitu semringah kala sepeda motor yang dulu dicuri temannya kini sudah kembali. Sebaliknya, temannya kini harus berurusan dengan polisi.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6883057/kampung-di-tasikmalaya-3-bulan-diserbu-pasukan-lalat-di-mana-mana</t>
+          <t>https://www.detik.com/jabar/berita/d-6887845/peringatan-dini-kekeringan-di-jabar-bandung-barat-berstatus-awas</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Kampung di Tasikmalaya 3 Bulan Diserbu Pasukan Lalat di Mana-mana</t>
+          <t>Peringatan Dini Kekeringan di Jabar, Bandung Barat Berstatus Awas</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45156.59930555556</v>
+        <v>45159.64513888889</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tiga bulan sudah warga Kampung Gunung Jambe, Kelurahan Tugujaya, Kecamatan Cihideung, Kota Tasikmalaya, Jawa Barat, merasa tak nyaman tinggal di rumah.</t>
+          <t>Kekeringan melanda sejumlah daerah di Jabar. Gubernur Jabar Ridwan Kamil pun mengaku telah menyiagakan petugas untuk membantu daerah-daerah yang kekeringan.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6882924/langkah-pemkot-tasik-atasi-serbuan-lalat-di-gunung-jambe</t>
+          <t>https://www.detik.com/jabar/berita/d-6886081/melihat-keseruan-lomba-ngurek-berhadiah-sepeda-motor-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Langkah Pemkot Tasik Atasi Serbuan Lalat di Gunung Jambe</t>
+          <t>Melihat Keseruan Lomba Ngurek Berhadiah Sepeda Motor di Tasikmalaya</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45156.55347222222</v>
+        <v>45158.61111111111</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Pemerintah Kota Tasikmalaya mulai turun tangan terkait pencemaran lingkungan yang terjadi di Kampung Gunung Jambe Kelurahan Tugujaya Kecamatan Cihideung.</t>
+          <t>Perlombaan unik dihelat masyarakat Desa Pagersari, Kecamatan Pager Ageung, Kabupaten Tasikmalaya. Mereka menggelar perlombaan ngurek alias memancing belut.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6882777/maut-di-lomba-balap-karung-tahun-lalu-tasikmalaya-kini-jambi</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6885423/lihai-penipu-di-tasik-tukar-ponsel-rp-33-juta-dengan-kunci-mobil-palsu</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Maut di Lomba Balap Karung: Tahun Lalu Tasikmalaya, Kini Jambi</t>
+          <t>Lihai Penipu di Tasik Tukar Ponsel Rp 33 Juta dengan Kunci Mobil Palsu</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45156.50138888889</v>
+        <v>45157.91041666667</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DW meninggal sesaat setelah dirinya sampai finis.</t>
+          <t>Aksi penipuan menimpa gerai penjual ponsel di Tasikmalaya. Dua unit ponsel dengan nilai Rp 33 juta raib digondol pelaku saat transaksi cash on delivery (COD).</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6881802/hujan-membuat-serbuan-lalat-kian-menggila-di-gunung-jambe-tasikmalaya</t>
+          <t>https://news.detik.com/berita/d-6883057/kampung-di-tasikmalaya-3-bulan-diserbu-pasukan-lalat-di-mana-mana</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hujan Membuat Serbuan Lalat Kian Menggila di Gunung Jambe Tasikmalaya</t>
+          <t>Kampung di Tasikmalaya 3 Bulan Diserbu Pasukan Lalat di Mana-mana</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45155.78125</v>
+        <v>45156.59930555556</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Hujan yang sempat mengguyur Kota Tasikmalaya memicu serbuan lalat di Kampung Gunung Jambe, Cihideung semakin menggila.</t>
+          <t>Tiga bulan sudah warga Kampung Gunung Jambe, Kelurahan Tugujaya, Kecamatan Cihideung, Kota Tasikmalaya, Jawa Barat, merasa tak nyaman tinggal di rumah.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6881709/kukuruyuk-jadi-tren-baru-lomba-agustusan-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6882924/langkah-pemkot-tasik-atasi-serbuan-lalat-di-gunung-jambe</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kukuruyuk Jadi Tren Baru Lomba Agustusan di Tasikmalaya</t>
+          <t>Langkah Pemkot Tasik Atasi Serbuan Lalat di Gunung Jambe</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45155.71875</v>
+        <v>45156.55347222222</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Kukuruyuk menjadi perlombaan favorit baru di Tasikmalaya. Seperti apa permainan ini?</t>
+          <t>Pemerintah Kota Tasikmalaya mulai turun tangan terkait pencemaran lingkungan yang terjadi di Kampung Gunung Jambe Kelurahan Tugujaya Kecamatan Cihideung.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6880955/derita-warga-sekampung-tasikmalaya-dikerubungi-lalat-dan-debu</t>
+          <t>https://news.detik.com/berita/d-6882777/maut-di-lomba-balap-karung-tahun-lalu-tasikmalaya-kini-jambi</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Derita Warga Sekampung Tasikmalaya Dikerubungi Lalat dan Debu</t>
+          <t>Maut di Lomba Balap Karung: Tahun Lalu Tasikmalaya, Kini Jambi</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45155.60416666666</v>
+        <v>45156.50138888889</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sudah tiga bulan warga sekampung di Tasikmalaya hidup dalam ketidaknyamanan. Mereka dikerubungi lalat dan debu.</t>
+          <t>DW meninggal sesaat setelah dirinya sampai finis.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6881216/upacara-hut-ri-yang-unik-di-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6881802/hujan-membuat-serbuan-lalat-kian-menggila-di-gunung-jambe-tasikmalaya</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Upacara HUT RI yang Unik di Tasik</t>
+          <t>Hujan Membuat Serbuan Lalat Kian Menggila di Gunung Jambe Tasikmalaya</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45155.50208333333</v>
+        <v>45155.78125</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Warga di salah satu perumahan di Tasikmalaya punya cara unik dalam memperingati HUT ke-78 Kemerdekaan RI. Simak ulasannya.</t>
+          <t>Hujan yang sempat mengguyur Kota Tasikmalaya memicu serbuan lalat di Kampung Gunung Jambe, Cihideung semakin menggila.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6880428/7-fakta-kampung-di-tasikmalaya-diserbu-lalat-dan-udara-berdebu</t>
+          <t>https://www.detik.com/jabar/berita/d-6881709/kukuruyuk-jadi-tren-baru-lomba-agustusan-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7 Fakta Kampung di Tasikmalaya Diserbu Lalat dan Udara Berdebu</t>
+          <t>Kukuruyuk Jadi Tren Baru Lomba Agustusan di Tasikmalaya</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45155.39583333334</v>
+        <v>45155.71875</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Lingkungan penuh debu dan dihinggapi lalat, pemandangan menjijikkan itu kini dirasakan warga di satu kampung yang berada di Kota Tasikmalaya. Ini 7 faktanya.</t>
+          <t>Kukuruyuk menjadi perlombaan favorit baru di Tasikmalaya. Seperti apa permainan ini?</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.detik.com/hikmah/khazanah/d-6879915/7-santri-dan-kiai-bergelar-pahlawan-nasional-ada-pangeran-diponegoro</t>
+          <t>https://www.detik.com/jabar/berita/d-6880955/derita-warga-sekampung-tasikmalaya-dikerubungi-lalat-dan-debu</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>7 Santri dan Kiai Bergelar Pahlawan Nasional, Ada Pangeran Diponegoro</t>
+          <t>Derita Warga Sekampung Tasikmalaya Dikerubungi Lalat dan Debu</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45155.29166666666</v>
+        <v>45155.60416666666</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ada deretan Pahlawan Nasional yang memiliki latar belakang pendidikan agama. Mereka bahkan tergolong kiai yang disegani dan juga lulusan pesantren.</t>
+          <t>Sudah tiga bulan warga sekampung di Tasikmalaya hidup dalam ketidaknyamanan. Mereka dikerubungi lalat dan debu.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6880673/geger-perempuan-muda-ditemukan-tewas-di-kamar-kost-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6881216/upacara-hut-ri-yang-unik-di-tasik</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Geger Perempuan Muda Ditemukan Tewas di Kamar Kost Tasikmalaya</t>
+          <t>Upacara HUT RI yang Unik di Tasik</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45154.95625</v>
+        <v>45155.50208333333</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Seorang perempuan muda ditemukan meninggal dunia di sebuah kamar kost di Kampung Gunung Ceuri, Linggajaya, Kota Tasikmalaya.</t>
+          <t>Warga di salah satu perumahan di Tasikmalaya punya cara unik dalam memperingati HUT ke-78 Kemerdekaan RI. Simak ulasannya.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6880408/jabar-hari-ini-selebgram-ditangkap-polisi-gegara-promosikan-judi-online</t>
+          <t>https://www.detik.com/jabar/berita/d-6880428/7-fakta-kampung-di-tasikmalaya-diserbu-lalat-dan-udara-berdebu</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Selebgram Ditangkap Polisi gegara Promosikan Judi Online</t>
+          <t>7 Fakta Kampung di Tasikmalaya Diserbu Lalat dan Udara Berdebu</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45154.91666666666</v>
+        <v>45155.39583333334</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jabar. Mulai dari selebgram ditangkap polisi gegara promosikan judi online hingga reaksi Ridwan Kamil digugat Rp 9 triliun.</t>
+          <t>Lingkungan penuh debu dan dihinggapi lalat, pemandangan menjijikkan itu kini dirasakan warga di satu kampung yang berada di Kota Tasikmalaya. Ini 7 faktanya.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6879740/daerah-otonomi-baru-jadi-pr-jawa-barat-di-momen-hut-ke-78-ri</t>
+          <t>https://www.detik.com/hikmah/khazanah/d-6879915/7-santri-dan-kiai-bergelar-pahlawan-nasional-ada-pangeran-diponegoro</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Daerah Otonomi Baru Jadi PR Jawa Barat di Momen HUT ke-78 RI</t>
+          <t>7 Santri dan Kiai Bergelar Pahlawan Nasional, Ada Pangeran Diponegoro</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45154.8125</v>
+        <v>45155.29166666666</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jawa Barat memerlukan daerah otonomi baru (DOB) demi meratakan pembangunan. Saat ini, sudah ada 9 calon daerah persiapan otonomi baru (CDPOB) yang diusulkan.</t>
+          <t>Ada deretan Pahlawan Nasional yang memiliki latar belakang pendidikan agama. Mereka bahkan tergolong kiai yang disegani dan juga lulusan pesantren.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6879771/lalat-dan-debu-kerubungi-kampung-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6880673/geger-perempuan-muda-ditemukan-tewas-di-kamar-kost-tasikmalaya</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lalat dan Debu Kerubungi Kampung di Tasikmalaya</t>
+          <t>Geger Perempuan Muda Ditemukan Tewas di Kamar Kost Tasikmalaya</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45154.66666666666</v>
+        <v>45154.95625</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Ratusan warga Kampung Gunung Jambe, Kelurahan Tugujaya, Kecamatan Cihideung, Kota Tasikmalaya mengeluhkan pencemaran lingkungan tempat tinggalnya.</t>
+          <t>Seorang perempuan muda ditemukan meninggal dunia di sebuah kamar kost di Kampung Gunung Ceuri, Linggajaya, Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://inet.detik.com/science/d-6878715/12-ilmuwan-indonesia-yang-karyanya-mendunia</t>
+          <t>https://www.detik.com/jabar/berita/d-6880408/jabar-hari-ini-selebgram-ditangkap-polisi-gegara-promosikan-judi-online</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>12 Ilmuwan Indonesia yang Karyanya Mendunia</t>
+          <t>Jabar Hari Ini: Selebgram Ditangkap Polisi gegara Promosikan Judi Online</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45154.26041666666</v>
+        <v>45154.91666666666</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Ada banyak ilmuwan Indonesia dengan penemuan atau kiprahnya di berbagai bidang yang mengharumkan nama bangsa. Kamu harus tahu!</t>
+          <t>Beragam peristiwa terjadi di Jabar. Mulai dari selebgram ditangkap polisi gegara promosikan judi online hingga reaksi Ridwan Kamil digugat Rp 9 triliun.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6877330/pesan-persatuan-dan-kerukunan-dari-anak-anak-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6879740/daerah-otonomi-baru-jadi-pr-jawa-barat-di-momen-hut-ke-78-ri</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pesan Persatuan dan Kerukunan dari Anak-anak Tasikmalaya</t>
+          <t>Daerah Otonomi Baru Jadi PR Jawa Barat di Momen HUT ke-78 RI</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45153.70833333334</v>
+        <v>45154.8125</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Semangat persatuan dan kerukunan antar umat beragama terasa kental di lingkungan Pondok Pesantren Sabilul Huda Kecamatan Tawang Kota Tasikmalaya.</t>
+          <t>Jawa Barat memerlukan daerah otonomi baru (DOB) demi meratakan pembangunan. Saat ini, sudah ada 9 calon daerah persiapan otonomi baru (CDPOB) yang diusulkan.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://travel.detik.com/domestic-destination/d-6876991/menelusuri-jejak-pertempuran-sengit-di-karangresik-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6879771/lalat-dan-debu-kerubungi-kampung-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Menelusuri Jejak Pertempuran Sengit di Karangresik Tasikmalaya</t>
+          <t>Lalat dan Debu Kerubungi Kampung di Tasikmalaya</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45153.48611111111</v>
+        <v>45154.66666666666</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Selain pernah menjadi ibu kota Provinsi Jawa Barat, Tasikmalaya juga sempat menjadi sasaran agresi militer Belanda pada 1947. Begini sejarahnya.</t>
+          <t>Ratusan warga Kampung Gunung Jambe, Kelurahan Tugujaya, Kecamatan Cihideung, Kota Tasikmalaya mengeluhkan pencemaran lingkungan tempat tinggalnya.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6876848/laporan-warga-bikin-boby-pengedar-sabu-di-tasikmalaya-diciduk-polisi</t>
+          <t>https://inet.detik.com/science/d-6878715/12-ilmuwan-indonesia-yang-karyanya-mendunia</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Laporan Warga Bikin Boby Pengedar Sabu di Tasikmalaya Diciduk Polisi</t>
+          <t>12 Ilmuwan Indonesia yang Karyanya Mendunia</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45153.35555555556</v>
+        <v>45154.26041666666</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Bekerjasama dengan warga, polisi menangkap Boby, seorang pengedar sabu-sabu asal Salawu, Tasikmalaya.</t>
+          <t>Ada banyak ilmuwan Indonesia dengan penemuan atau kiprahnya di berbagai bidang yang mengharumkan nama bangsa. Kamu harus tahu!</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/wisata/d-6875587/jejak-pertempuran-sengit-di-karangresik-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6877330/pesan-persatuan-dan-kerukunan-dari-anak-anak-tasikmalaya</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Jejak Pertempuran Sengit di Karangresik Tasikmalaya</t>
+          <t>Pesan Persatuan dan Kerukunan dari Anak-anak Tasikmalaya</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45153.33333333334</v>
+        <v>45153.70833333334</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Selain pernah menjadi ibu kota Provinsi Jawa Barat, Tasikmalaya juga sempat menjadi sasaran agresi militer Belanda pada 1947.</t>
+          <t>Semangat persatuan dan kerukunan antar umat beragama terasa kental di lingkungan Pondok Pesantren Sabilul Huda Kecamatan Tawang Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6875021/keseruan-peringatan-hari-pramuka-di-taman-kota-tasikmalaya</t>
+          <t>https://travel.detik.com/domestic-destination/d-6876991/menelusuri-jejak-pertempuran-sengit-di-karangresik-tasikmalaya</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Keseruan Peringatan Hari Pramuka di Taman Kota Tasikmalaya</t>
+          <t>Menelusuri Jejak Pertempuran Sengit di Karangresik Tasikmalaya</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
-        <v>45152.5625</v>
+        <v>45153.48611111111</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Peringatan Hari Pramuka, Senin (14/8/2023) di Kota Tasikmalaya dirayakan pelajar dengan beragam kegiatan. Salah satunya dengan aksi memungut sampah.</t>
+          <t>Selain pernah menjadi ibu kota Provinsi Jawa Barat, Tasikmalaya juga sempat menjadi sasaran agresi militer Belanda pada 1947. Begini sejarahnya.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/sepakbola/d-6874054/jabar-masuk-3-besar-wilayah-paling-rawan-politik-uang-di-indonesia</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6876848/laporan-warga-bikin-boby-pengedar-sabu-di-tasikmalaya-diciduk-polisi</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jabar Masuk 3 Besar Wilayah Paling Rawan Politik Uang di Indonesia</t>
+          <t>Laporan Warga Bikin Boby Pengedar Sabu di Tasikmalaya Diciduk Polisi</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45151.66875</v>
+        <v>45153.35555555556</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Jawa Barat masuk ke dalam 3 daerah di Indonesia yang memiliki tingkat kerentanan politik uang di Indonesia tertinggi.</t>
+          <t>Bekerjasama dengan warga, polisi menangkap Boby, seorang pengedar sabu-sabu asal Salawu, Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6873701/kilas-balik-lomba-agustusan-renggut-2-nyawa-warga-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/wisata/d-6875587/jejak-pertempuran-sengit-di-karangresik-tasikmalaya</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Kilas Balik Lomba Agustusan Renggut 2 Nyawa Warga Tasikmalaya</t>
+          <t>Jejak Pertempuran Sengit di Karangresik Tasikmalaya</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45151.57152777778</v>
+        <v>45153.33333333334</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Lomba Agustusan tahun 2022 lalu di Kota Tasikmalaya menyisakan kisah tragis. Di mana, acara yang seharusnya dirayakan dengan suka cita malah menjadi duka.</t>
+          <t>Selain pernah menjadi ibu kota Provinsi Jawa Barat, Tasikmalaya juga sempat menjadi sasaran agresi militer Belanda pada 1947.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/budaya/d-6872763/menilik-saat-tasikmalaya-jadi-ibu-kota-jawa-barat</t>
+          <t>https://www.detik.com/jabar/berita/d-6875021/keseruan-peringatan-hari-pramuka-di-taman-kota-tasikmalaya</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Menilik Saat Tasikmalaya Jadi Ibu Kota Jawa Barat</t>
+          <t>Keseruan Peringatan Hari Pramuka di Taman Kota Tasikmalaya</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45151.35416666666</v>
+        <v>45152.5625</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tasikmalaya sempat menjadi ibu kota pemerintahan Provinsi Jawa Barat buntut peristiwa Bandung Lautan Api.</t>
+          <t>Peringatan Hari Pramuka, Senin (14/8/2023) di Kota Tasikmalaya dirayakan pelajar dengan beragam kegiatan. Salah satunya dengan aksi memungut sampah.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6870432/mayor-utarya-perwira-bernyali-besar-yang-gugur-oleh-gerombolan-ditii</t>
+          <t>https://www.detik.com/jabar/sepakbola/d-6874054/jabar-masuk-3-besar-wilayah-paling-rawan-politik-uang-di-indonesia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mayor Utarya, Perwira Bernyali Besar yang Gugur oleh Gerombolan DI/TII</t>
+          <t>Jabar Masuk 3 Besar Wilayah Paling Rawan Politik Uang di Indonesia</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45150.39583333334</v>
+        <v>45151.66875</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Kota Tasikmalaya menjadi salah satu daerah yang memiliki banyak catatan sejarah perjuangan Indonesia. Salah satunya kisah perjuangan Mayor Utarya.</t>
+          <t>Jawa Barat masuk ke dalam 3 daerah di Indonesia yang memiliki tingkat kerentanan politik uang di Indonesia tertinggi.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/berita/d-6871366/preman-ini-aniaya-warga-karena-tak-diberi-rokok</t>
+          <t>https://www.detik.com/jabar/berita/d-6873701/kilas-balik-lomba-agustusan-renggut-2-nyawa-warga-tasikmalaya</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Preman Ini Aniaya Warga Karena Tak Diberi Rokok</t>
+          <t>Kilas Balik Lomba Agustusan Renggut 2 Nyawa Warga Tasikmalaya</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45150.125</v>
+        <v>45151.57152777778</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Seorang preman di Tasikmakaya ditangkap polisi usai menganiaya seorang warga. Penganiayaan ini terjadi karena gara-gara tidak diberi rokok.</t>
+          <t>Lomba Agustusan tahun 2022 lalu di Kota Tasikmalaya menyisakan kisah tragis. Di mana, acara yang seharusnya dirayakan dengan suka cita malah menjadi duka.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6870567/catatan-rk-bawa-indikator-makro-di-jabar-terus-meningkat</t>
+          <t>https://www.detik.com/jabar/budaya/d-6872763/menilik-saat-tasikmalaya-jadi-ibu-kota-jawa-barat</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Catatan RK Bawa Indikator Makro di Jabar Terus Meningkat</t>
+          <t>Menilik Saat Tasikmalaya Jadi Ibu Kota Jawa Barat</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
-        <v>45150.125</v>
+        <v>45151.35416666666</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Ridwan Kamil membawa Jabar mengalami peningkatan dalam berbagai hal. Salah satunya dilihat dari indikator umum atau makro.</t>
+          <t>Tasikmalaya sempat menjadi ibu kota pemerintahan Provinsi Jawa Barat buntut peristiwa Bandung Lautan Api.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://news.detik.com/detiktv/d-6871461/preman-di-tasikmalaya-aniaya-warga-karena-tak-diberi-rokok</t>
+          <t>https://www.detik.com/jabar/berita/d-6870432/mayor-utarya-perwira-bernyali-besar-yang-gugur-oleh-gerombolan-ditii</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Preman di Tasikmalaya Aniaya Warga Karena Tak Diberi Rokok</t>
+          <t>Mayor Utarya, Perwira Bernyali Besar yang Gugur oleh Gerombolan DI/TII</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45149.73194444444</v>
+        <v>45150.39583333334</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Ajid (42) warga Cikanyere Kota Tasikmalaya, Jawa Barat, ditangkap usai menganiaya seorang warga gara-gara tak diberi rokok, Jumat (11/8/2023).</t>
+          <t>Kota Tasikmalaya menjadi salah satu daerah yang memiliki banyak catatan sejarah perjuangan Indonesia. Salah satunya kisah perjuangan Mayor Utarya.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6871196/preman-ajid-bikin-kepala-warga-tasik-bocor-gegara-masalah-rokok</t>
+          <t>https://www.detik.com/sumut/berita/d-6871366/preman-ini-aniaya-warga-karena-tak-diberi-rokok</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Preman Ajid Bikin Kepala Warga Tasik Bocor gegara Masalah Rokok</t>
+          <t>Preman Ini Aniaya Warga Karena Tak Diberi Rokok</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45149.70833333334</v>
+        <v>45150.125</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Gegara perkara sebatang rokok, Agus (38) warga Tasikmalaya mengalami luka sobek di kepala usai dilempar batu oleh oleh Ajid (42), seorang preman asal Cikanyere.</t>
+          <t>Seorang preman di Tasikmakaya ditangkap polisi usai menganiaya seorang warga. Penganiayaan ini terjadi karena gara-gara tidak diberi rokok.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.detik.com/properti/berita/d-6870414/profil-bos-baru-rei-crazy-rich-yang-sempat-perbaiki-jalan-di-grobogan-dan-cicalengka</t>
+          <t>https://www.detik.com/jabar/berita/d-6870567/catatan-rk-bawa-indikator-makro-di-jabar-terus-meningkat</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Profil Bos Baru REI, Crazy Rich yang Sempat Perbaiki Jalan di Grobogan dan Cicalengka</t>
+          <t>Catatan RK Bawa Indikator Makro di Jabar Terus Meningkat</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45149.43263888889</v>
+        <v>45150.125</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Asosiasi pengembang yang tergabung dalam Realestat Indonesia (REI) telah memilih ketua umumnya untuk periode 2023-2027, yaitu Joko Suranto.</t>
+          <t>Ridwan Kamil membawa Jabar mengalami peningkatan dalam berbagai hal. Salah satunya dilihat dari indikator umum atau makro.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6869797/peristiwa-pilu-hingga-peserta-balap-karung-diimbau-pakai-helm</t>
+          <t>https://news.detik.com/detiktv/d-6871461/preman-di-tasikmalaya-aniaya-warga-karena-tak-diberi-rokok</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Peristiwa Pilu hingga Peserta Balap Karung Diimbau Pakai Helm</t>
+          <t>Preman di Tasikmalaya Aniaya Warga Karena Tak Diberi Rokok</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45149.34375</v>
+        <v>45149.73194444444</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sejumlah pihak mewanti-wanti agar perayaan HUT RI bisa berjalan aman. Bahkan di Tasik lomba balap karung disarankan menggunakan helm.</t>
+          <t>Ajid (42) warga Cikanyere Kota Tasikmalaya, Jawa Barat, ditangkap usai menganiaya seorang warga gara-gara tak diberi rokok, Jumat (11/8/2023).</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6869357/2-warga-tewas-agustusan-lalu-balap-karung-di-tasik-kini-diimbau-pakai-helm</t>
+          <t>https://www.detik.com/jabar/berita/d-6871196/preman-ajid-bikin-kepala-warga-tasik-bocor-gegara-masalah-rokok</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2 Warga Tewas Agustusan Lalu, Balap Karung di Tasik Kini Diimbau Pakai Helm</t>
+          <t>Preman Ajid Bikin Kepala Warga Tasik Bocor gegara Masalah Rokok</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45148.67986111111</v>
+        <v>45149.70833333334</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Warga panitia lomba Agustuan di Tasikmalaya diminta untuk berhati-hati dalam menyelenggarakan lomba. Pasalnya, sudah ada dua warga yang tewas tahun lalu.</t>
+          <t>Gegara perkara sebatang rokok, Agus (38) warga Tasikmalaya mengalami luka sobek di kepala usai dilempar batu oleh oleh Ajid (42), seorang preman asal Cikanyere.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6868859/balap-karung-tewaskan-warga-di-tasik-peserta-kini-diimbau-pakai-helm</t>
+          <t>https://www.detik.com/properti/berita/d-6870414/profil-bos-baru-rei-crazy-rich-yang-sempat-perbaiki-jalan-di-grobogan-dan-cicalengka</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Balap Karung Tewaskan Warga di Tasik, Peserta Kini Diimbau Pakai Helm</t>
+          <t>Profil Bos Baru REI, Crazy Rich yang Sempat Perbaiki Jalan di Grobogan dan Cicalengka</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45148.64583333334</v>
+        <v>45149.43263888889</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Panitia perayaan hari kemerdekaan diimbau memperhatikan unsur-unsur keselamatan peserta saat menghelat pertandingan atau perlombaan khas Agustusan.</t>
+          <t>Asosiasi pengembang yang tergabung dalam Realestat Indonesia (REI) telah memilih ketua umumnya untuk periode 2023-2027, yaitu Joko Suranto.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6866828/pemkot-tasikmalaya-mulai-gencarkan-vaksinasi-kanker-serviks-dan-diare</t>
+          <t>https://www.detik.com/jabar/berita/d-6869797/peristiwa-pilu-hingga-peserta-balap-karung-diimbau-pakai-helm</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pemkot Tasikmalaya Mulai Gencarkan Vaksinasi Kanker Serviks dan Diare</t>
+          <t>Peristiwa Pilu hingga Peserta Balap Karung Diimbau Pakai Helm</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45148.08333333334</v>
+        <v>45149.34375</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Pemerintah Kota Tasikmalaya mulai melakukan persiapan pemberian vaksinasi human papilloma virus (HPV) dan Rotavirus (RV). Ribuan anak dan balita divaksinasi.</t>
+          <t>Sejumlah pihak mewanti-wanti agar perayaan HUT RI bisa berjalan aman. Bahkan di Tasik lomba balap karung disarankan menggunakan helm.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/berita/d-6867272/lomba-agustusan-pernah-renggut-2-nyawa-polisi-beri-peringatan</t>
+          <t>https://news.detik.com/berita/d-6869357/2-warga-tewas-agustusan-lalu-balap-karung-di-tasik-kini-diimbau-pakai-helm</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Lomba Agustusan Pernah Renggut 2 Nyawa, Polisi Beri Peringatan</t>
+          <t>2 Warga Tewas Agustusan Lalu, Balap Karung di Tasik Kini Diimbau Pakai Helm</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45148.04166666666</v>
+        <v>45148.67986111111</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Lomba memperingati hari kemerdekaan 17 Agustus di Tasikmalaya pernah merenggut korban jiwa. Polisi peringatkan untuk menjaga keselamatan.</t>
+          <t>Warga panitia lomba Agustuan di Tasikmalaya diminta untuk berhati-hati dalam menyelenggarakan lomba. Pasalnya, sudah ada dua warga yang tewas tahun lalu.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6867229/pencuri-kotak-amal-di-tasikmalaya-lolos-dari-bui-karena-saksi-sibuk</t>
+          <t>https://www.detik.com/jabar/berita/d-6868859/balap-karung-tewaskan-warga-di-tasik-peserta-kini-diimbau-pakai-helm</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pencuri Kotak Amal di Tasikmalaya Lolos dari Bui karena Saksi Sibuk</t>
+          <t>Balap Karung Tewaskan Warga di Tasik, Peserta Kini Diimbau Pakai Helm</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
-        <v>45147.83333333334</v>
+        <v>45148.64583333334</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Pencuri kotak amal di Masjid As Salam, Tawang, Kota Tasikmalaya lepas dari jerat hukum usai ditangkap warga. Alasannya kemanusiaan dan saksi sibuk.</t>
+          <t>Panitia perayaan hari kemerdekaan diimbau memperhatikan unsur-unsur keselamatan peserta saat menghelat pertandingan atau perlombaan khas Agustusan.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6866523/wanti-wanti-polisi-agar-lomba-agustusan-di-tasik-tak-berujung-maut-lagi</t>
+          <t>https://www.detik.com/jabar/berita/d-6866828/pemkot-tasikmalaya-mulai-gencarkan-vaksinasi-kanker-serviks-dan-diare</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Wanti-wanti Polisi agar Lomba Agustusan di Tasik Tak Berujung Maut Lagi</t>
+          <t>Pemkot Tasikmalaya Mulai Gencarkan Vaksinasi Kanker Serviks dan Diare</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
-        <v>45147.4625</v>
+        <v>45148.08333333334</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Terjadi dua insiden maut saat perlombaan HUT RI di Kota Tasikmalaya tahun lalu. Polisi mewanti-wanti agar kejadian lomba Agustusan itu tak terulang.</t>
+          <t>Pemerintah Kota Tasikmalaya mulai melakukan persiapan pemberian vaksinasi human papilloma virus (HPV) dan Rotavirus (RV). Ribuan anak dan balita divaksinasi.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6866481/momen-lucu-sandiaga-uno-gelitik-perut-wagub-uu</t>
+          <t>https://www.detik.com/sumut/berita/d-6867272/lomba-agustusan-pernah-renggut-2-nyawa-polisi-beri-peringatan</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Momen Lucu Sandiaga Uno Gelitik Perut Wagub Uu</t>
+          <t>Lomba Agustusan Pernah Renggut 2 Nyawa, Polisi Beri Peringatan</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
-        <v>45147.45</v>
+        <v>45148.04166666666</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Momen lucu terjadi saat Menparekraf Sandiaga Salahuddin Uno dan Wagub Jabar Uu Ruzhanul Ulum mengunjungi Desa Wisata Religi Astana di Kabupaten Cirebon.</t>
+          <t>Lomba memperingati hari kemerdekaan 17 Agustus di Tasikmalaya pernah merenggut korban jiwa. Polisi peringatkan untuk menjaga keselamatan.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6866458/ridwan-kamil-gaet-855-anak-muda-promosikan-potensi-desa-wisata-di-jabar</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6867229/pencuri-kotak-amal-di-tasikmalaya-lolos-dari-bui-karena-saksi-sibuk</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ridwan Kamil Gaet 855 Anak Muda Promosikan Potensi Desa Wisata di Jabar</t>
+          <t>Pencuri Kotak Amal di Tasikmalaya Lolos dari Bui karena Saksi Sibuk</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
-        <v>45147.44444444445</v>
+        <v>45147.83333333334</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Para peserta yang telah melalui tahap pembekalan materi hingga pendampingan pembuatan konten akan mulai mempromosikan desa wisata yang ada di Jawa Barat.</t>
+          <t>Pencuri kotak amal di Masjid As Salam, Tawang, Kota Tasikmalaya lepas dari jerat hukum usai ditangkap warga. Alasannya kemanusiaan dan saksi sibuk.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/berita/d-6866337/kala-lomba-balap-karung-karaoke-17-agustus-memakan-korban-jiwa</t>
+          <t>https://news.detik.com/berita/d-6866523/wanti-wanti-polisi-agar-lomba-agustusan-di-tasik-tak-berujung-maut-lagi</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Kala Lomba Balap Karung-Karaoke 17 Agustus Memakan Korban Jiwa</t>
+          <t>Wanti-wanti Polisi agar Lomba Agustusan di Tasik Tak Berujung Maut Lagi</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
-        <v>45147.39791666667</v>
+        <v>45147.4625</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Sudah menjadi tradisi mengadakan lomba 17 Agustus saat peringatan HUT RI. Namun, kegiatan itu pernah merenggut nyawa seorang ibu-ibu dan pria.</t>
+          <t>Terjadi dua insiden maut saat perlombaan HUT RI di Kota Tasikmalaya tahun lalu. Polisi mewanti-wanti agar kejadian lomba Agustusan itu tak terulang.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6865461/jabar-hari-ini-larangan-sepeda-listrik-mengaspal-di-bandung</t>
+          <t>https://www.detik.com/jabar/berita/d-6866481/momen-lucu-sandiaga-uno-gelitik-perut-wagub-uu</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Larangan Sepeda Listrik Mengaspal di Bandung</t>
+          <t>Momen Lucu Sandiaga Uno Gelitik Perut Wagub Uu</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
-        <v>45146.91666666666</v>
+        <v>45147.45</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Sejumlah peristiwa mewarnai pemberitaan di Jawa Barat (Jabar) hari ini, Selasa (8/8/2023), seperti larangan sepeda listrik digunakan di jalan raya Kota Bandung.</t>
+          <t>Momen lucu terjadi saat Menparekraf Sandiaga Salahuddin Uno dan Wagub Jabar Uu Ruzhanul Ulum mengunjungi Desa Wisata Religi Astana di Kabupaten Cirebon.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6865892/kang-ace-ingatkan-jangan-ada-kanibalisme-politik-bikin-lemah-partai</t>
+          <t>https://news.detik.com/berita/d-6866458/ridwan-kamil-gaet-855-anak-muda-promosikan-potensi-desa-wisata-di-jabar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Kang Ace Ingatkan Jangan Ada Kanibalisme Politik, Bikin Lemah Partai</t>
+          <t>Ridwan Kamil Gaet 855 Anak Muda Promosikan Potensi Desa Wisata di Jabar</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
-        <v>45146.84027777778</v>
+        <v>45147.44444444445</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Wakil Ketua Komisi VIII DPR RI itu mengatakan konflik dan gontok-gontokan untuk memperebutkan kursi legislatif justru hanya akan memperlemah partai.</t>
+          <t>Para peserta yang telah melalui tahap pembekalan materi hingga pendampingan pembuatan konten akan mulai mempromosikan desa wisata yang ada di Jawa Barat.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6865163/meneropong-bursa-calon-wali-kota-tasikmalaya-yang-mulai-menghangat</t>
+          <t>https://www.detik.com/sumut/berita/d-6866337/kala-lomba-balap-karung-karaoke-17-agustus-memakan-korban-jiwa</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Meneropong Bursa Calon Wali Kota Tasikmalaya yang Mulai Menghangat</t>
+          <t>Kala Lomba Balap Karung-Karaoke 17 Agustus Memakan Korban Jiwa</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
-        <v>45146.80486111111</v>
+        <v>45147.39791666667</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Bursa bakal calon Wali Kota Tasikmalaya mulai menghangat. Sejumlah nama mulai bermunculan digadang-gadang akan berlaga di Pilwakot Tasikmalaya 2024 nanti.</t>
+          <t>Sudah menjadi tradisi mengadakan lomba 17 Agustus saat peringatan HUT RI. Namun, kegiatan itu pernah merenggut nyawa seorang ibu-ibu dan pria.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6864374/saeful-hanya-perlu-ketenangan-biar-lulus-praktik-sim-c-model-baru</t>
+          <t>https://www.detik.com/jabar/berita/d-6865461/jabar-hari-ini-larangan-sepeda-listrik-mengaspal-di-bandung</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Saeful Hanya Perlu Ketenangan Biar Lulus Praktik SIM C Model Baru</t>
+          <t>Jabar Hari Ini: Larangan Sepeda Listrik Mengaspal di Bandung</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
-        <v>45146.55555555555</v>
+        <v>45146.91666666666</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Polres Tasikmalaya mulai menerapkan lintasan ujian praktik SIM C model baru. Perubahan ini disambut baik oleh warga pemohon SIM C karena dianggap lebih mudah.</t>
+          <t>Sejumlah peristiwa mewarnai pemberitaan di Jawa Barat (Jabar) hari ini, Selasa (8/8/2023), seperti larangan sepeda listrik digunakan di jalan raya Kota Bandung.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6863548/5-fakta-hujan-tak-biasa-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6865892/kang-ace-ingatkan-jangan-ada-kanibalisme-politik-bikin-lemah-partai</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>5 Fakta Hujan Tak Biasa di Tasikmalaya</t>
+          <t>Kang Ace Ingatkan Jangan Ada Kanibalisme Politik, Bikin Lemah Partai</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
-        <v>45146.52083333334</v>
+        <v>45146.84027777778</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Fenomena aneh dirasakan warga di Kota Tasikmalaya. Saat hujan deras mengguyur wilayah tersebut, air ternyata hanya turun ke satu rumah warga di sana.</t>
+          <t>Wakil Ketua Komisi VIII DPR RI itu mengatakan konflik dan gontok-gontokan untuk memperebutkan kursi legislatif justru hanya akan memperlemah partai.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6864480/lomba-agustusan-renggut-2-nyawa-di-tasikmalaya-ini-kata-polisi</t>
+          <t>https://www.detik.com/jabar/berita/d-6865163/meneropong-bursa-calon-wali-kota-tasikmalaya-yang-mulai-menghangat</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Lomba Agustusan Renggut 2 Nyawa di Tasikmalaya, Ini Kata Polisi</t>
+          <t>Meneropong Bursa Calon Wali Kota Tasikmalaya yang Mulai Menghangat</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
-        <v>45146.5</v>
+        <v>45146.80486111111</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Peringatan 17 Agustus tahun lalu menyisakan catatan kelam di Kota Tasikmalaya. Dua warga meninggal dunia saat gegap gempita perlombaan.</t>
+          <t>Bursa bakal calon Wali Kota Tasikmalaya mulai menghangat. Sejumlah nama mulai bermunculan digadang-gadang akan berlaga di Pilwakot Tasikmalaya 2024 nanti.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6862471/curhat-tukang-kiridit-asal-tasikmalaya-yang-keok-dihajar-kosipa</t>
+          <t>https://www.detik.com/jabar/berita/d-6864374/saeful-hanya-perlu-ketenangan-biar-lulus-praktik-sim-c-model-baru</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Curhat Tukang Kiridit Asal Tasikmalaya yang Keok 'Dihajar' Kosipa</t>
+          <t>Saeful Hanya Perlu Ketenangan Biar Lulus Praktik SIM C Model Baru</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
-        <v>45146.4375</v>
+        <v>45146.55555555555</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Dede (43) merupakan salah satu tukang kiridit asal Tasikmalaya. Profesi yang dulu sangat menjanjikan itu, kini redup seiring hadirnya rentenir berkedok Kosipa.</t>
+          <t>Polres Tasikmalaya mulai menerapkan lintasan ujian praktik SIM C model baru. Perubahan ini disambut baik oleh warga pemohon SIM C karena dianggap lebih mudah.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6862470/lika-liku-tukang-kiridit-tasikmalaya-bayar-cicilan-pakai-kopi-segelas</t>
+          <t>https://www.detik.com/jabar/berita/d-6863548/5-fakta-hujan-tak-biasa-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lika-liku Tukang Kiridit Tasikmalaya, Bayar Cicilan Pakai Kopi Segelas</t>
+          <t>5 Fakta Hujan Tak Biasa di Tasikmalaya</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
-        <v>45146.375</v>
+        <v>45146.52083333334</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Mengenal profesi tukang kiridit yang terkenal dari Tasikmalaya. Kini pelanggan mereka semakin menyusut.</t>
+          <t>Fenomena aneh dirasakan warga di Kota Tasikmalaya. Saat hujan deras mengguyur wilayah tersebut, air ternyata hanya turun ke satu rumah warga di sana.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6862469/asal-usul-tasikmalaya-jadi-kampung-halaman-tukang-kiridit</t>
+          <t>https://www.detik.com/jabar/berita/d-6864480/lomba-agustusan-renggut-2-nyawa-di-tasikmalaya-ini-kata-polisi</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Asal-usul Tasikmalaya Jadi Kampung Halaman Tukang Kiridit</t>
+          <t>Lomba Agustusan Renggut 2 Nyawa di Tasikmalaya, Ini Kata Polisi</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
-        <v>45146.3125</v>
+        <v>45146.5</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Satu dari sekian banyak sebutan yang melekat pada Tasikmalaya adalah daerah asal Tukang Kiridit atau tukang kredit. Tak main-main kiprah pelakunya menasional.</t>
+          <t>Peringatan 17 Agustus tahun lalu menyisakan catatan kelam di Kota Tasikmalaya. Dua warga meninggal dunia saat gegap gempita perlombaan.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-6862945/heboh-hujan-guyur-1-rumah-di-tasikmalaya-ini-penjelasan-bmkg</t>
+          <t>https://www.detik.com/jabar/berita/d-6862471/curhat-tukang-kiridit-asal-tasikmalaya-yang-keok-dihajar-kosipa</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Heboh Hujan Guyur 1 Rumah di Tasikmalaya, Ini Penjelasan BMKG</t>
+          <t>Curhat Tukang Kiridit Asal Tasikmalaya yang Keok 'Dihajar' Kosipa</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45145.56458333333</v>
+        <v>45146.4375</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Fenomena aneh itu lantas membuat tetangga Deni bigung.</t>
+          <t>Dede (43) merupakan salah satu tukang kiridit asal Tasikmalaya. Profesi yang dulu sangat menjanjikan itu, kini redup seiring hadirnya rentenir berkedok Kosipa.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6861983/fenomena-aneh-hujan-hanya-guyur-satu-rumah-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6862470/lika-liku-tukang-kiridit-tasikmalaya-bayar-cicilan-pakai-kopi-segelas</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fenomena Aneh Hujan Hanya Guyur Satu Rumah di Tasikmalaya</t>
+          <t>Lika-liku Tukang Kiridit Tasikmalaya, Bayar Cicilan Pakai Kopi Segelas</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
-        <v>45145.27152777778</v>
+        <v>45146.375</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Fenomena aneh dirasakan warga di Kota Tasikmalaya. Hujan deras hanya mengguyur satu rumah di Kampung Margalaksana, Kecamatan Tawang, Kota Tasikmalaya.</t>
+          <t>Mengenal profesi tukang kiridit yang terkenal dari Tasikmalaya. Kini pelanggan mereka semakin menyusut.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6861822/penjelasan-bmkg-soal-hujan-hanya-guyur-1-rumah-warga-di-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6862469/asal-usul-tasikmalaya-jadi-kampung-halaman-tukang-kiridit</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Penjelasan BMKG soal Hujan Hanya Guyur 1 Rumah Warga di Tasik</t>
+          <t>Asal-usul Tasikmalaya Jadi Kampung Halaman Tukang Kiridit</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
-        <v>45144.80069444444</v>
+        <v>45146.3125</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>BMKG memberikan penjelasan mengenai hujan deras yang hanya mengguyur 1 rumah di Kampung Margalaksana, Kelurahan Kahuripan, Kecamatan Tawang, Kota Tasikmalaya.</t>
+          <t>Satu dari sekian banyak sebutan yang melekat pada Tasikmalaya adalah daerah asal Tukang Kiridit atau tukang kredit. Tak main-main kiprah pelakunya menasional.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6861771/restu-pertama-dari-ibunda-untuk-ridwan-kamil-menjajal-jakarta</t>
+          <t>https://news.detik.com/berita/d-6862945/heboh-hujan-guyur-1-rumah-di-tasikmalaya-ini-penjelasan-bmkg</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Restu Pertama dari Ibunda untuk Ridwan Kamil 'Menjajal' Jakarta</t>
+          <t>Heboh Hujan Guyur 1 Rumah di Tasikmalaya, Ini Penjelasan BMKG</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
-        <v>45144.78125</v>
+        <v>45145.56458333333</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Langkah politik Ridwan Kamil hingga kini memang masih menyisakan tanda tanya. Kemana langkah politiknya akan berjalan di 2024.</t>
+          <t>Fenomena aneh itu lantas membuat tetangga Deni bigung.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6861655/aneh-tapi-nyata-hujan-hanya-guyur-1-rumah-warga-di-tasikmalaya</t>
+          <t>https://www.detik.com/jabar/berita/d-6861983/fenomena-aneh-hujan-hanya-guyur-satu-rumah-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Aneh tapi Nyata: Hujan Hanya Guyur 1 Rumah Warga di Tasikmalaya</t>
+          <t>Fenomena Aneh Hujan Hanya Guyur Satu Rumah di Tasikmalaya</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
-        <v>45144.69791666666</v>
+        <v>45145.27152777778</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Warga Kampung Margalaksana, Kelurahan Kahuripan, Kecamatan Tawang, Kota Tasikmalaya mendadak heboh menyusul adanya hujan deras yang hanya mengguyur satu rumah.</t>
+          <t>Fenomena aneh dirasakan warga di Kota Tasikmalaya. Hujan deras hanya mengguyur satu rumah di Kampung Margalaksana, Kecamatan Tawang, Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6861579/gegara-jemuran-pria-tasik-ngamuk-sambil-bawa-pisau</t>
+          <t>https://www.detik.com/jabar/berita/d-6861822/penjelasan-bmkg-soal-hujan-hanya-guyur-1-rumah-warga-di-tasik</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Gegara Jemuran, Pria Tasik Ngamuk Sambil Bawa Pisau</t>
+          <t>Penjelasan BMKG soal Hujan Hanya Guyur 1 Rumah Warga di Tasik</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
-        <v>45144.66041666667</v>
+        <v>45144.80069444444</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Seorang pria mengamuk di Kota Tasikmalaya. Sambil menghunus pisau pria berinisial YS (34) ini mengamuk dan melakukan tindakan yang meresahkan warga.</t>
+          <t>BMKG memberikan penjelasan mengenai hujan deras yang hanya mengguyur 1 rumah di Kampung Margalaksana, Kelurahan Kahuripan, Kecamatan Tawang, Kota Tasikmalaya.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/berita/d-6860844/daftar-pahlawan-nasional-indonesia-dari-sumatera-utara-sudah-tahu</t>
+          <t>https://www.detik.com/jabar/berita/d-6861771/restu-pertama-dari-ibunda-untuk-ridwan-kamil-menjajal-jakarta</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Daftar Pahlawan Nasional Indonesia dari Sumatera Utara, Sudah Tahu?</t>
+          <t>Restu Pertama dari Ibunda untuk Ridwan Kamil 'Menjajal' Jakarta</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
-        <v>45144.33333333334</v>
+        <v>45144.78125</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Ternyata banyak pahlawan yang berasal dari Sumatera Utara. Siapa saja? Berikut detikSumut rangkum.</t>
+          <t>Langkah politik Ridwan Kamil hingga kini memang masih menyisakan tanda tanya. Kemana langkah politiknya akan berjalan di 2024.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6860326/truk-masuk-jurang-di-gentong-tasikmalaya-bocah-12-tahun-tewas</t>
+          <t>https://www.detik.com/jabar/berita/d-6861655/aneh-tapi-nyata-hujan-hanya-guyur-1-rumah-warga-di-tasikmalaya</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Truk Masuk Jurang di Gentong Tasikmalaya, Bocah 12 Tahun Tewas!</t>
+          <t>Aneh tapi Nyata: Hujan Hanya Guyur 1 Rumah Warga di Tasikmalaya</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
-        <v>45143.58472222222</v>
+        <v>45144.69791666666</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Truk masuk jurang terjadi di Tasikmalaya pada Sabtu (5/8/2023). Bocah berusia 12 tahun tewas dalam kecelakaan tersebut.</t>
+          <t>Warga Kampung Margalaksana, Kelurahan Kahuripan, Kecamatan Tawang, Kota Tasikmalaya mendadak heboh menyusul adanya hujan deras yang hanya mengguyur satu rumah.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6859670/ono-surono-kami-coba-samakan-persepsi-untuk-menangkan-ganjar-di-jabar</t>
+          <t>https://www.detik.com/jabar/berita/d-6861579/gegara-jemuran-pria-tasik-ngamuk-sambil-bawa-pisau</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ono Surono: Kami Coba Samakan Persepsi untuk Menangkan Ganjar di Jabar</t>
+          <t>Gegara Jemuran, Pria Tasik Ngamuk Sambil Bawa Pisau</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
-        <v>45142.85277777778</v>
+        <v>45144.66041666667</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Ono mengatakan pertemuan ini digelar pertama kalinya dengan partai-partai yang telah bekerja sama mendukung, mengusung, dan memenangkan Ganjar Pranowo di Jabar.</t>
+          <t>Seorang pria mengamuk di Kota Tasikmalaya. Sambil menghunus pisau pria berinisial YS (34) ini mengamuk dan melakukan tindakan yang meresahkan warga.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6857226/langgar-aturan-reklame-raksasa-di-tasikmalaya-dibongkar</t>
+          <t>https://www.detik.com/sumut/berita/d-6860844/daftar-pahlawan-nasional-indonesia-dari-sumatera-utara-sudah-tahu</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Langgar Aturan, Reklame Raksasa di Tasikmalaya Dibongkar</t>
+          <t>Daftar Pahlawan Nasional Indonesia dari Sumatera Utara, Sudah Tahu?</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
-        <v>45141.97916666666</v>
+        <v>45144.33333333334</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Petugas Satpol PP melakukan pembongkaran terhadap bangunan reklame yang berdiri di median jalan. Keberadaan reklame ini dianggap melanggar aturan.</t>
+          <t>Ternyata banyak pahlawan yang berasal dari Sumatera Utara. Siapa saja? Berikut detikSumut rangkum.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6857463/jabar-hari-ini-rocky-gerung-dilaporkan-ke-polda-hingga-persib-didenda</t>
+          <t>https://www.detik.com/jabar/berita/d-6860326/truk-masuk-jurang-di-gentong-tasikmalaya-bocah-12-tahun-tewas</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Rocky Gerung Dilaporkan ke Polda hingga Persib Didenda</t>
+          <t>Truk Masuk Jurang di Gentong Tasikmalaya, Bocah 12 Tahun Tewas!</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
-        <v>45141.91736111111</v>
+        <v>45143.58472222222</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini. Mulai dari Rocky Gerung yang dilaporkan ke Polda Jabar hingga Persib didenda Rp 25 juta.</t>
+          <t>Truk masuk jurang terjadi di Tasikmalaya pada Sabtu (5/8/2023). Bocah berusia 12 tahun tewas dalam kecelakaan tersebut.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6856635/akhir-pelarian-bang-jago-penganiaya-sopir-truk-pertamina-di-tasik</t>
+          <t>https://www.detik.com/jabar/berita/d-6859670/ono-surono-kami-coba-samakan-persepsi-untuk-menangkan-ganjar-di-jabar</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Akhir Pelarian Bang Jago Penganiaya Sopir Truk Pertamina di Tasik</t>
+          <t>Ono Surono: Kami Coba Samakan Persepsi untuk Menangkan Ganjar di Jabar</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
-        <v>45141.63194444445</v>
+        <v>45142.85277777778</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Dua bang jago yang memukuli sopir truk tangki Pertamina di Tasikmalaya ditangkap polisi. Keduanya kini harus bertanggung jawab atas perbuatannya.</t>
+          <t>Ono mengatakan pertemuan ini digelar pertama kalinya dengan partai-partai yang telah bekerja sama mendukung, mengusung, dan memenangkan Ganjar Pranowo di Jabar.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6856797/ulah-bejat-elon-perkosa-abg-tasikmalaya-hingga-hamil-6-bulan</t>
+          <t>https://www.detik.com/jabar/berita/d-6857226/langgar-aturan-reklame-raksasa-di-tasikmalaya-dibongkar</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ulah Bejat Elon Perkosa ABG Tasikmalaya hingga Hamil 6 Bulan</t>
+          <t>Langgar Aturan, Reklame Raksasa di Tasikmalaya Dibongkar</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
-        <v>45141.60902777778</v>
+        <v>45141.97916666666</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Elon Suherlan harus mendekam di balik jeruji besi. Dia dengan beringasnya memperkosa ABG perempuan yang tak lain tetangganya hingga hamil 6 bulan.</t>
+          <t>Petugas Satpol PP melakukan pembongkaran terhadap bangunan reklame yang berdiri di median jalan. Keberadaan reklame ini dianggap melanggar aturan.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/wisata/d-6854834/ciamis-bakal-punya-wisata-kebun-binatang-mini-ini-penampakannya</t>
+          <t>https://www.detik.com/jabar/berita/d-6857463/jabar-hari-ini-rocky-gerung-dilaporkan-ke-polda-hingga-persib-didenda</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ciamis Bakal Punya Wisata Kebun Binatang Mini, Ini Penampakannya</t>
+          <t>Jabar Hari Ini: Rocky Gerung Dilaporkan ke Polda hingga Persib Didenda</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
-        <v>45141.22916666666</v>
+        <v>45141.91736111111</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Wisata Edukasi Bumi Pakarangan akan segera hadir di Ciamis. Di sini nantinya pengunjung bisa berwisata dengan konsep kebun binatang mini &amp; kolam renang.</t>
+          <t>Beragam peristiwa terjadi di Jawa Barat (Jabar) hari ini. Mulai dari Rocky Gerung yang dilaporkan ke Polda Jabar hingga Persib didenda Rp 25 juta.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6854727/5-wilayah-di-kota-tasikmalaya-terancam-krisis-air-bersih</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6856635/akhir-pelarian-bang-jago-penganiaya-sopir-truk-pertamina-di-tasik</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>5 Wilayah di Kota Tasikmalaya Terancam Krisis Air Bersih</t>
+          <t>Akhir Pelarian Bang Jago Penganiaya Sopir Truk Pertamina di Tasik</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
-        <v>45141.08333333334</v>
+        <v>45141.63194444445</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Pemkot Tasikmalaya menyiapkan segala hal untuk menghadapi musim kemarau. Berdasarkan kajian, ada 5 wilayah di Kota Tasikmalaya yang terancam krisis air bersih.</t>
+          <t>Dua bang jago yang memukuli sopir truk tangki Pertamina di Tasikmalaya ditangkap polisi. Keduanya kini harus bertanggung jawab atas perbuatannya.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://food.detik.com/berita-boga/d-6854256/cerita-pemenang-lomba-makan-snack-terpedas-di-indonesia</t>
+          <t>https://www.detik.com/jabar/hukum-dan-kriminal/d-6856797/ulah-bejat-elon-perkosa-abg-tasikmalaya-hingga-hamil-6-bulan</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cerita Pemenang Lomba Makan Snack Terpedas di Indonesia</t>
+          <t>Ulah Bejat Elon Perkosa ABG Tasikmalaya hingga Hamil 6 Bulan</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
-        <v>45140.42777777778</v>
+        <v>45141.60902777778</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Kontes makan camilan terpedas ini diadakan oleh BonCabe yang meluncurkan produk terbaru yaitu Snack BonCabe Makaroni Level 50 Max End.</t>
+          <t>Elon Suherlan harus mendekam di balik jeruji besi. Dia dengan beringasnya memperkosa ABG perempuan yang tak lain tetangganya hingga hamil 6 bulan.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/berita/d-6853625/20-contoh-teks-cerita-sejarah-tentang-pahlawan-beserta-strukturnya</t>
+          <t>https://www.detik.com/jabar/wisata/d-6854834/ciamis-bakal-punya-wisata-kebun-binatang-mini-ini-penampakannya</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>20 Contoh Teks Cerita Sejarah Tentang Pahlawan Beserta Strukturnya</t>
+          <t>Ciamis Bakal Punya Wisata Kebun Binatang Mini, Ini Penampakannya</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
-        <v>45139.91666666666</v>
+        <v>45141.22916666666</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>berikut 20 contoh teks cerita sejarah tentang pahlawan lengkap dengan penjelasan strukturnya. Cek selengkapnya di sini!</t>
+          <t>Wisata Edukasi Bumi Pakarangan akan segera hadir di Ciamis. Di sini nantinya pengunjung bisa berwisata dengan konsep kebun binatang mini &amp; kolam renang.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6851410/restu-ibunda-agar-ridwan-kamil-jadi-gubernur-dki</t>
+          <t>https://www.detik.com/jabar/berita/d-6854727/5-wilayah-di-kota-tasikmalaya-terancam-krisis-air-bersih</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Restu Ibunda agar Ridwan Kamil Jadi Gubernur DKI</t>
+          <t>5 Wilayah di Kota Tasikmalaya Terancam Krisis Air Bersih</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
-        <v>45139.3125</v>
+        <v>45141.08333333334</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Ridwan Kamil direstui sang ibunda untuk maju jadi Gubernur DKI Jakarta. Begini reaksi Ridwan Kamil atas restu sang ibunda?</t>
+          <t>Pemkot Tasikmalaya menyiapkan segala hal untuk menghadapi musim kemarau. Berdasarkan kajian, ada 5 wilayah di Kota Tasikmalaya yang terancam krisis air bersih.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6851824/16-kepala-daerah-di-jabar-bakal-lengser-akhir-tahun-ini</t>
+          <t>https://food.detik.com/berita-boga/d-6854256/cerita-pemenang-lomba-makan-snack-terpedas-di-indonesia</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16 Kepala Daerah di Jabar Bakal Lengser Akhir Tahun Ini</t>
+          <t>Cerita Pemenang Lomba Makan Snack Terpedas di Indonesia</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
-        <v>45139.28125</v>
+        <v>45140.42777777778</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sebanyak 16 kepala daerah di Jabar akan habis masa jabatannya pada akhir 2023 ini. Dari daerah mana saja mereka?</t>
+          <t>Kontes makan camilan terpedas ini diadakan oleh BonCabe yang meluncurkan produk terbaru yaitu Snack BonCabe Makaroni Level 50 Max End.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6851655/jabar-hari-ini-viral-ritual-syiah-di-bandung</t>
+          <t>https://www.detik.com/sulsel/berita/d-6853625/20-contoh-teks-cerita-sejarah-tentang-pahlawan-beserta-strukturnya</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Jabar Hari Ini: Viral Ritual Syiah di Bandung</t>
+          <t>20 Contoh Teks Cerita Sejarah Tentang Pahlawan Beserta Strukturnya</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
-        <v>45138.92361111111</v>
+        <v>45139.91666666666</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Beragam peristiwa terjadi di Jawa Barat hari ini, Senin (31/7/2023), dari mulai viral ritual Syiah di Bandung hingga evakuasi kaleng biskuit di kepala balita.</t>
+          <t>berikut 20 contoh teks cerita sejarah tentang pahlawan lengkap dengan penjelasan strukturnya. Cek selengkapnya di sini!</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6851249/hasil-evaluasi-disdik-tasik-soal-pungutan-siswa-cerdas-istimewa</t>
+          <t>https://www.detik.com/jabar/berita/d-6851410/restu-ibunda-agar-ridwan-kamil-jadi-gubernur-dki</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Hasil Evaluasi Disdik Tasik Soal Pungutan Siswa Cerdas Istimewa</t>
+          <t>Restu Ibunda agar Ridwan Kamil Jadi Gubernur DKI</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
-        <v>45138.83333333334</v>
+        <v>45139.3125</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Dinas Pendidikan Kota Tasikmalaya telah selesai melakukan evaluasi terhadap kasus pungutan hingga Rp 8 juta terhadap siswa kelas Cerdas Istimewa.</t>
+          <t>Ridwan Kamil direstui sang ibunda untuk maju jadi Gubernur DKI Jakarta. Begini reaksi Ridwan Kamil atas restu sang ibunda?</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6850758/ridwan-kamil-usulkan-nama-pj-walkot-bandung-ke-kemendagri-siapa</t>
+          <t>https://www.detik.com/jabar/berita/d-6851824/16-kepala-daerah-di-jabar-bakal-lengser-akhir-tahun-ini</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ridwan Kamil Usulkan Nama PJ Walkot Bandung ke Kemendagri, Siapa?</t>
+          <t>16 Kepala Daerah di Jabar Bakal Lengser Akhir Tahun Ini</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
-        <v>45138.70833333334</v>
+        <v>45139.28125</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Gubernur Jabar Ridwan Kamil telah mengusulkan nama Penjabat (Pj) Wali Kota Bandung. Usulan nama tersebut akan diserahkan ke Kemendagri.</t>
+          <t>Sebanyak 16 kepala daerah di Jabar akan habis masa jabatannya pada akhir 2023 ini. Dari daerah mana saja mereka?</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-6850862/guru-madrasah-tasikmalaya-protes-aturan-asn-cuma-kerja-5-hari</t>
+          <t>https://www.detik.com/jabar/berita/d-6851655/jabar-hari-ini-viral-ritual-syiah-di-bandung</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Guru Madrasah Tasikmalaya Protes Aturan ASN Cuma Kerja 5 Hari</t>
+          <t>Jabar Hari Ini: Viral Ritual Syiah di Bandung</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
-        <v>45138.60763888889</v>
+        <v>45138.92361111111</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Massa guru madrasah di Kota Tasikmalaya menggelar aksi demonstrasi ke gedung DPRD Kota Tasikmalaya, Senin (31/7/2023).</t>
+          <t>Beragam peristiwa terjadi di Jawa Barat hari ini, Senin (31/7/2023), dari mulai viral ritual Syiah di Bandung hingga evakuasi kaleng biskuit di kepala balita.</t>
         </is>
       </c>
     </row>
